--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="1807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1848">
   <si>
     <t>JDK</t>
   </si>
@@ -13434,12 +13434,246 @@
   <si>
     <t>refer u_Stream.collect_method.doc in (JavaPrep\images\1_core_java)</t>
   </si>
+  <si>
+    <t>Parallelism in Collection framewrk</t>
+  </si>
+  <si>
+    <t>Parallel computing involves dividing a problem into subproblems, solving those problems simultaneously (in parallel, with each subproblem running in a separate thread), and then combining the results of the solutions to the subproblems. Java SE provides the fork/join framework, which enables you to more easily implement parallel computing in your applications. However, with this framework, you must specify how the problems are subdivided (partitioned). With aggregate operations, the Java runtime performs this partitioning and combining of solutions for you.</t>
+  </si>
+  <si>
+    <t>One difficulty in implementing parallelism in applications that use collections is that collections are not thread-safe, which means that multiple threads cannot manipulate a collection without introducing thread interference or memory consistency errors. The Collections Framework provides synchronization wrappers, which add automatic synchronization to an arbitrary collection, making it thread-safe. However, synchronization introduces thread contention. You want to avoid thread contention because it prevents threads from running in parallel. Aggregate operations and parallel streams enable you to implement parallelism with non-thread-safe collections provided that you do not modify the collection while you are operating on it.</t>
+  </si>
+  <si>
+    <t>Stream.reduce, Stream.collect</t>
+  </si>
+  <si>
+    <t>parallel grouping based on gender</t>
+  </si>
+  <si>
+    <t>Above is called a concurrent reduction. The Java runtime performs a concurrent reduction if all of the the following are true for a particular pipeline that contains the collect operation:</t>
+  </si>
+  <si>
+    <t>1. The stream is parallel.
+2. The parameter of the collect operation, the collector, has the characteristic Collector.Characteristics.CONCURRENT. To determine the characteristics of a collector, invoke the Collector.characteristics method.
+3. Either the stream is unordered, or the collector has the characteristic Collector.Characteristics.UNORDERED. To ensure that the stream is unordered, invoke the BaseStream.unordered operation.</t>
+  </si>
+  <si>
+    <t>ConcurrentMap&lt;Person.Sex, List&lt;Person&gt;&gt; genderGrouping = persons.parallelStream()
+    .collect(Collectors.groupingByConcurrent(Person::getGender));</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This example returns an instance of ConcurrentMap instead of Map and invokes the groupingByConcurrent operation instead of groupingBy. (See the section Concurrent Collections for more information about ConcurrentMap.) Unlike the operation groupingByConcurrent, the operation groupingBy performs poorly with parallel streams. (This is because it operates by merging two maps by key, which is computationally expensive.) Similarly, the operation Collectors.toConcurrentMap performs better with parallel streams than the operation Collectors.toMap.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ordering collection elements</t>
+  </si>
+  <si>
+    <t>refer v_ordering_collection_elements.doc in (JavaPrep\images\1_core_java)</t>
+  </si>
+  <si>
+    <t>A sequence of aggregate operations is known as a</t>
+  </si>
+  <si>
+    <t>Interview questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipeline </t>
+  </si>
+  <si>
+    <t>Each pipeline contains zero or more ___ operations</t>
+  </si>
+  <si>
+    <t>Intermediate </t>
+  </si>
+  <si>
+    <t>Each pipeline ends with a ___ operation. </t>
+  </si>
+  <si>
+    <t>Terminal </t>
+  </si>
+  <si>
+    <t>What kind of operation produces another stream as its output? </t>
+  </si>
+  <si>
+    <r>
+      <t>Describe one way in which the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>forEach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> aggregate operation differs from the enhanced </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> statement or iterators. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The forEach aggregate operation lets the system decide "how" the iteration takes place. Using aggregate operations lets you focus on "what" instead of "how." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">True or False: A stream is similar to a collection in that it is a data structure that stores elements. </t>
+  </si>
+  <si>
+    <t>False. Unlike a collection, a stream is not a data structure. It instead carries values from a source through a pipeline</t>
+  </si>
+  <si>
+    <t>Identify the intermediate and terminal operations in this code:
+double average = roster .stream().filter(p -&gt; p.getGender() == Person.Sex.MALE).mapToInt(Person::getAge).average().getAsDouble();</t>
+  </si>
+  <si>
+    <t>Intermediate: filter, mapToInt, Terminal: average
+The terminal operation average returns an OptionalDouble. The getAsDouble method is then invoked on that returned object.
+It is always a good idea to consult the API Specification for information about whether an operation is intermediate or terminal.</t>
+  </si>
+  <si>
+    <t>The code p -&gt; p.getGender() == Person.Sex.MALE is an example of what?</t>
+  </si>
+  <si>
+    <t>lambda expression</t>
+  </si>
+  <si>
+    <t>The code Person::getAge is an example of what</t>
+  </si>
+  <si>
+    <t>method reference</t>
+  </si>
+  <si>
+    <t>Terminal operations that combine the contents of a stream and return one value are known as what</t>
+  </si>
+  <si>
+    <t>Reduction operations</t>
+  </si>
+  <si>
+    <t>Name one important difference between the Stream.reduce method and the Stream.collect method</t>
+  </si>
+  <si>
+    <t>Stream.reduce always creates a new value when it processes an element. Stream.collect modifies (or mutates) the existing value</t>
+  </si>
+  <si>
+    <t>If you wanted to process a stream of names, extract the male names, and store them in a new List, would Stream.reduce or Stream.collect be the most appropriate operation to use?</t>
+  </si>
+  <si>
+    <t>The collect operation is most appropriate for collecting into a List
+Example:
+List&lt;String&gt; namesOfMaleMembersCollect = roster.stream().filter(p -&gt; p.getGender() == Person.Sex.MALE)
+    .map(p -&gt; p.getName()).collect(Collectors.toList());</t>
+  </si>
+  <si>
+    <t>True or False: Aggregate operations make it possible to implement parallelism with non-thread-safe collections</t>
+  </si>
+  <si>
+    <t>True, provided that you do not modify (mutate) the underlying collection while you are operating on it</t>
+  </si>
+  <si>
+    <t>Streams are always serial unless otherwise specified. How do you request that a stream be processed in parallel?</t>
+  </si>
+  <si>
+    <t>Obtain the parallel stream by invoking parallelStream() instead of stream()</t>
+  </si>
+  <si>
+    <t>List&lt;Album&gt; favs = new ArrayList&lt;&gt;();
+for (Album a : albums) {
+    boolean hasFavorite = false;
+    for (Track t : a.tracks) {
+        if (t.rating &gt;= 4) {
+            hasFavorite = true;
+            break;
+        }
+    }
+    if (hasFavorite)
+        favs.add(a);
+}
+Collections.sort(favs, new Comparator&lt;Album&gt;() {
+                           public int compare(Album a1, Album a2) {
+                               return a1.name.compareTo(a2.name);
+                           }});</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Same functionality with collection stream aggregate functions:
+List&lt;Album&gt; sortedFavs =
+  albums.stream()
+        .filter(a -&gt; a.tracks.anyMatch(t -&gt; (t.rating &gt;= 4)))
+        .sorted(Comparator.comparing(a -&gt; a.name))
+        .collect(Collectors.toList());
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Here we have used the stream operations to simplify each of the three major steps -- identification of whether any track in an album has a rating of at least 4 (anyMatch), the sorting, and the collection of albums matching our criteria into a List. The Comparator.comparing() method takes a function that extracts a Comparable sort key, and returns a Comparator that compares on that key.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13512,6 +13746,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -13594,7 +13840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13731,20 +13977,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14056,8 +14311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14239,87 +14494,87 @@
       <c r="C25" s="32"/>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="19" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B27" s="27"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="29" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>606</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C30" s="27"/>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>1333</v>
+        <v>674</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>1264</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>1262</v>
+        <v>1263</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B37" s="27"/>
+        <v>283</v>
+      </c>
       <c r="C37" s="41"/>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -14609,9 +14864,9 @@
     <hyperlink ref="B46" r:id="rId8"/>
     <hyperlink ref="B56" r:id="rId9"/>
     <hyperlink ref="B40" r:id="rId10"/>
-    <hyperlink ref="B32" r:id="rId11"/>
+    <hyperlink ref="B33" r:id="rId11"/>
     <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B34" r:id="rId13"/>
+    <hyperlink ref="B35" r:id="rId13"/>
     <hyperlink ref="B71" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14621,16 +14876,150 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="102.140625" customWidth="1"/>
+    <col min="1" max="1" width="70.28515625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="113.28515625" style="47" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1" s="51"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14650,10 +15039,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>698</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -14715,10 +15104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="A279" sqref="A279"/>
+    <sheetView topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="B286" sqref="B286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14728,10 +15117,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16867,7 +17256,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="48" t="s">
         <v>1788</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -16923,32 +17312,86 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>1801</v>
+      <c r="A276" s="47" t="s">
+        <v>125</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B279" s="2" t="s">
         <v>1806</v>
       </c>
     </row>
+    <row r="280" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A280" s="52" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A281" s="52"/>
+      <c r="B281" s="2" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A283" s="52" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A284" s="52"/>
+      <c r="B284" s="2" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>1817</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="A283:A284"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -16970,10 +17413,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>902</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -17596,10 +18039,10 @@
       <c r="B79" s="23"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="50" t="s">
         <v>1224</v>
       </c>
-      <c r="B80" s="48"/>
+      <c r="B80" s="51"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -17807,10 +18250,10 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="47" t="s">
+      <c r="A107" s="50" t="s">
         <v>1230</v>
       </c>
-      <c r="B107" s="48"/>
+      <c r="B107" s="51"/>
     </row>
     <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -17869,10 +18312,10 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="47" t="s">
+      <c r="A115" s="50" t="s">
         <v>1229</v>
       </c>
-      <c r="B115" s="48"/>
+      <c r="B115" s="51"/>
     </row>
     <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -18155,10 +18598,10 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="47" t="s">
+      <c r="A152" s="50" t="s">
         <v>1195</v>
       </c>
-      <c r="B152" s="48"/>
+      <c r="B152" s="51"/>
     </row>
     <row r="153" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -18201,10 +18644,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -18503,10 +18946,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="53" t="s">
         <v>435</v>
       </c>
-      <c r="B39" s="49"/>
+      <c r="B39" s="53"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -18701,10 +19144,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="50" t="s">
         <v>500</v>
       </c>
-      <c r="B65" s="48"/>
+      <c r="B65" s="51"/>
     </row>
     <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -18867,10 +19310,10 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="50" t="s">
         <v>1246</v>
       </c>
-      <c r="B87" s="48"/>
+      <c r="B87" s="51"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -18907,10 +19350,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -19393,10 +19836,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -19583,7 +20026,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="54" t="s">
         <v>1070</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -19591,13 +20034,13 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="2" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="54" t="s">
         <v>1071</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -19605,13 +20048,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="2" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="52" t="s">
         <v>1072</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -19619,19 +20062,19 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="3" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="2" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="2" t="s">
         <v>1069</v>
       </c>
@@ -19669,10 +20112,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="50" t="s">
         <v>988</v>
       </c>
-      <c r="B37" s="48"/>
+      <c r="B37" s="51"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -19723,10 +20166,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="50" t="s">
         <v>1001</v>
       </c>
-      <c r="B45" s="48"/>
+      <c r="B45" s="51"/>
     </row>
     <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -19817,7 +20260,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="54" t="s">
         <v>1024</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -19825,7 +20268,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="18" t="s">
         <v>1026</v>
       </c>
@@ -19847,7 +20290,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="54" t="s">
         <v>1031</v>
       </c>
       <c r="B61" s="18" t="s">
@@ -19855,7 +20298,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="18" t="s">
         <v>1033</v>
       </c>
@@ -19885,10 +20328,10 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="50" t="s">
         <v>1040</v>
       </c>
-      <c r="B67" s="48"/>
+      <c r="B67" s="51"/>
     </row>
     <row r="68" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -19986,10 +20429,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>1228</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -20100,10 +20543,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="50" t="s">
         <v>1696</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="51"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -20234,7 +20677,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="54" t="s">
         <v>1768</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -20242,7 +20685,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="2" t="s">
         <v>1771</v>
       </c>
@@ -20279,7 +20722,7 @@
   <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20289,10 +20732,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>1473</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -20791,10 +21234,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="50" t="s">
         <v>1474</v>
       </c>
-      <c r="B64" s="48"/>
+      <c r="B64" s="51"/>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
@@ -21229,10 +21672,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>607</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -21426,10 +21869,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="50" t="s">
         <v>1265</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="51"/>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -21704,10 +22147,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="50" t="s">
         <v>1568</v>
       </c>
-      <c r="B62" s="48"/>
+      <c r="B62" s="51"/>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -21750,7 +22193,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="54" t="s">
         <v>1580</v>
       </c>
       <c r="B68" s="40" t="s">
@@ -21758,7 +22201,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="40" t="s">
         <v>1582</v>
       </c>

--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="1856">
   <si>
     <t>JDK</t>
   </si>
@@ -2977,9 +2977,6 @@
   </si>
   <si>
     <t>Different annotation used in SOAP web services</t>
-  </si>
-  <si>
-    <t>SOAP Web Services</t>
   </si>
   <si>
     <t>JDB</t>
@@ -13667,6 +13664,34 @@
       </rPr>
       <t xml:space="preserve"> Here we have used the stream operations to simplify each of the three major steps -- identification of whether any track in an album has a rating of at least 4 (anyMatch), the sorting, and the collection of albums matching our criteria into a List. The Comparator.comparing() method takes a function that extracts a Comparable sort key, and returns a Comparator that compares on that key.</t>
     </r>
+  </si>
+  <si>
+    <t>http://docs.oracle.com/javase/8/javase-clienttechnologies.htm</t>
+  </si>
+  <si>
+    <t>SOAP Web Services Basics</t>
+  </si>
+  <si>
+    <t>SOAP Web Services Advanced topics</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>http://www.w3schools.com/xml/default.asp</t>
+  </si>
+  <si>
+    <t>Collections - Java 8 Streams</t>
+  </si>
+  <si>
+    <t>http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/
+http://www.drdobbs.com/jvm/lambdas-and-streams-in-java-8-libraries/240166818</t>
+  </si>
+  <si>
+    <t>Collections tutorial</t>
+  </si>
+  <si>
+    <t>http://tutorials.jenkov.com/java-collections/index.html</t>
   </si>
 </sst>
 </file>
@@ -13840,7 +13865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13984,6 +14009,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14309,9 +14337,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -14414,7 +14442,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>719</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -14437,10 +14465,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -14453,17 +14481,17 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>538</v>
@@ -14471,7 +14499,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B22" s="41"/>
     </row>
@@ -14500,377 +14528,419 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B27" s="27"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C30" s="27"/>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1850</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C30" s="50"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1849</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>267</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="C32" s="27"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>674</v>
+        <v>1854</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1855</v>
+      </c>
+      <c r="C33" s="50"/>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1852</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C34" s="50"/>
+    </row>
+    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>1264</v>
+        <v>262</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C37" s="41"/>
+        <v>265</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>621</v>
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>905</v>
+        <v>674</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>1194</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>286</v>
-      </c>
+        <v>1262</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C41" s="41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>535</v>
+        <v>281</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>270</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>271</v>
+        <v>904</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>896</v>
+        <v>462</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>895</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>272</v>
+        <v>534</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>274</v>
+        <v>895</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1756</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>376</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>292</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>690</v>
+        <v>295</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>721</v>
+        <v>297</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>884</v>
+        <v>299</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>886</v>
+        <v>318</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>887</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>888</v>
+        <v>690</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>889</v>
+        <v>719</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>891</v>
+        <v>883</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>1847</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>1579</v>
+        <v>886</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>1701</v>
+        <v>891</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1719</v>
+        <v>892</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>1714</v>
+        <v>1577</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>1715</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>1716</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>1717</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>1718</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>1755</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>1757</v>
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B64" r:id="rId2"/>
-    <hyperlink ref="B66" r:id="rId3"/>
-    <hyperlink ref="B67" r:id="rId4"/>
-    <hyperlink ref="B68" r:id="rId5"/>
-    <hyperlink ref="B69" r:id="rId6"/>
-    <hyperlink ref="B70" r:id="rId7"/>
-    <hyperlink ref="B46" r:id="rId8"/>
-    <hyperlink ref="B56" r:id="rId9"/>
-    <hyperlink ref="B40" r:id="rId10"/>
-    <hyperlink ref="B33" r:id="rId11"/>
+    <hyperlink ref="B68" r:id="rId2"/>
+    <hyperlink ref="B70" r:id="rId3"/>
+    <hyperlink ref="B71" r:id="rId4"/>
+    <hyperlink ref="B72" r:id="rId5"/>
+    <hyperlink ref="B73" r:id="rId6"/>
+    <hyperlink ref="B74" r:id="rId7"/>
+    <hyperlink ref="B50" r:id="rId8"/>
+    <hyperlink ref="B60" r:id="rId9"/>
+    <hyperlink ref="B46" r:id="rId10"/>
+    <hyperlink ref="B39" r:id="rId11"/>
     <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B35" r:id="rId13"/>
-    <hyperlink ref="B71" r:id="rId14"/>
+    <hyperlink ref="B41" r:id="rId13"/>
+    <hyperlink ref="B75" r:id="rId14"/>
+    <hyperlink ref="B69" r:id="rId15"/>
+    <hyperlink ref="B63" r:id="rId16"/>
+    <hyperlink ref="B30" r:id="rId17"/>
+    <hyperlink ref="B34" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
+    <hyperlink ref="B33" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -14889,129 +14959,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B1" s="51"/>
+      <c r="A1" s="51" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>1821</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>1823</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>1826</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B7" s="47" t="s">
         <v>1828</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>1830</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>1832</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>1834</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>1836</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>1838</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>1840</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B14" s="47" t="s">
         <v>1842</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>1844</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>1846</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>1847</v>
       </c>
     </row>
   </sheetData>
@@ -15039,10 +15109,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>698</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -15117,17 +15187,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -15167,7 +15237,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -15239,7 +15309,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -15279,7 +15349,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -15335,7 +15405,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -15367,7 +15437,7 @@
         <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -15471,7 +15541,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -15479,15 +15549,15 @@
         <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -15503,7 +15573,7 @@
         <v>72</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -15535,7 +15605,7 @@
         <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -15543,7 +15613,7 @@
         <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -15591,7 +15661,7 @@
         <v>164</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -15607,7 +15677,7 @@
         <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -15663,7 +15733,7 @@
         <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15703,7 +15773,7 @@
         <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -15719,7 +15789,7 @@
         <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -15727,7 +15797,7 @@
         <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -15743,7 +15813,7 @@
         <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -15807,7 +15877,7 @@
         <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -15839,23 +15909,23 @@
         <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>857</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -15879,7 +15949,7 @@
         <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -15895,7 +15965,7 @@
         <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -16007,7 +16077,7 @@
         <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16015,7 +16085,7 @@
         <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16031,7 +16101,7 @@
         <v>159</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -16063,7 +16133,7 @@
         <v>169</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16071,7 +16141,7 @@
         <v>170</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16087,7 +16157,7 @@
         <v>208</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -16103,7 +16173,7 @@
         <v>209</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -16111,7 +16181,7 @@
         <v>715</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -16119,7 +16189,7 @@
         <v>172</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16159,7 +16229,7 @@
         <v>183</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16175,7 +16245,7 @@
         <v>182</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -16191,7 +16261,7 @@
         <v>189</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -16204,10 +16274,10 @@
     </row>
     <row r="137" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16215,15 +16285,15 @@
         <v>186</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -16239,7 +16309,7 @@
         <v>188</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16247,7 +16317,7 @@
         <v>190</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16255,7 +16325,7 @@
         <v>191</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16276,10 +16346,10 @@
     </row>
     <row r="146" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16292,15 +16362,15 @@
     </row>
     <row r="148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A149" s="29" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>200</v>
@@ -16335,7 +16405,7 @@
         <v>214</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16343,7 +16413,7 @@
         <v>215</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16367,7 +16437,7 @@
         <v>224</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16375,7 +16445,7 @@
         <v>225</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -16404,7 +16474,7 @@
     </row>
     <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>229</v>
@@ -16433,10 +16503,10 @@
     </row>
     <row r="166" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>1101</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16444,7 +16514,7 @@
         <v>201</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -16460,7 +16530,7 @@
         <v>241</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -16516,7 +16586,7 @@
         <v>303</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -16532,7 +16602,7 @@
         <v>392</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16628,7 +16698,7 @@
         <v>327</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16644,7 +16714,7 @@
         <v>334</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16652,7 +16722,7 @@
         <v>335</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -16665,10 +16735,10 @@
     </row>
     <row r="195" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16681,10 +16751,10 @@
     </row>
     <row r="197" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16692,7 +16762,7 @@
         <v>339</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -16716,15 +16786,15 @@
         <v>343</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -16732,7 +16802,7 @@
         <v>344</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16740,7 +16810,7 @@
         <v>345</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16748,7 +16818,7 @@
         <v>346</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -16780,7 +16850,7 @@
         <v>303</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16796,7 +16866,7 @@
         <v>353</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16804,7 +16874,7 @@
         <v>370</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16820,7 +16890,7 @@
         <v>334</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16828,7 +16898,7 @@
         <v>377</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -16836,12 +16906,12 @@
         <v>312</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>378</v>
@@ -16868,7 +16938,7 @@
         <v>382</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -16876,7 +16946,7 @@
         <v>383</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16884,7 +16954,7 @@
         <v>384</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16900,15 +16970,15 @@
         <v>386</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16924,23 +16994,23 @@
         <v>387</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A229" s="31" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16953,10 +17023,10 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16969,202 +17039,202 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="31" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>782</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A252" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="31" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17180,7 +17250,7 @@
         <v>314</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17201,7 +17271,7 @@
     </row>
     <row r="262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>710</v>
@@ -17209,95 +17279,95 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>1776</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>1778</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>1780</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>1782</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>1784</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>1786</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A269" s="48" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>1788</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>1790</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>1792</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="45" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>1794</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>1796</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>365</v>
@@ -17305,10 +17375,10 @@
     </row>
     <row r="275" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>1799</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -17316,75 +17386,75 @@
         <v>125</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>1801</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>1803</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>1805</v>
       </c>
-      <c r="B279" s="2" t="s">
+    </row>
+    <row r="280" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A280" s="53" t="s">
         <v>1806</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A280" s="52" t="s">
+      <c r="B280" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="B280" s="2" t="s">
+    </row>
+    <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A281" s="53"/>
+      <c r="B281" s="2" t="s">
         <v>1808</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A281" s="52"/>
-      <c r="B281" s="2" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A283" s="53" t="s">
         <v>1811</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B283" s="2" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A284" s="53"/>
+      <c r="B284" s="2" t="s">
         <v>1814</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A283" s="52" t="s">
-        <v>1812</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A284" s="52"/>
-      <c r="B284" s="2" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>1816</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>1817</v>
       </c>
     </row>
   </sheetData>
@@ -17413,129 +17483,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>902</v>
-      </c>
-      <c r="B1" s="51"/>
+      <c r="A1" s="51" t="s">
+        <v>901</v>
+      </c>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -17556,10 +17626,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -17572,58 +17642,58 @@
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
+        <v>930</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17636,10 +17706,10 @@
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -17647,39 +17717,39 @@
         <v>547</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -17687,23 +17757,23 @@
         <v>546</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>1208</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17711,7 +17781,7 @@
         <v>547</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17719,12 +17789,12 @@
         <v>550</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>623</v>
@@ -17735,7 +17805,7 @@
         <v>624</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17743,7 +17813,7 @@
         <v>551</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17759,7 +17829,7 @@
         <v>553</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17775,7 +17845,7 @@
         <v>554</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17783,15 +17853,15 @@
         <v>555</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17799,7 +17869,7 @@
         <v>562</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -17807,15 +17877,15 @@
         <v>561</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -17823,7 +17893,7 @@
         <v>556</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17831,15 +17901,15 @@
         <v>628</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -17847,7 +17917,7 @@
         <v>557</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17855,7 +17925,7 @@
         <v>629</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -17863,7 +17933,7 @@
         <v>560</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17879,7 +17949,7 @@
         <v>630</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17916,7 +17986,7 @@
     </row>
     <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>639</v>
@@ -17927,7 +17997,7 @@
         <v>640</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -17940,10 +18010,10 @@
     </row>
     <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -17951,87 +18021,87 @@
         <v>557</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>1126</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>1128</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -18039,25 +18109,25 @@
       <c r="B79" s="23"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="50" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B80" s="51"/>
+      <c r="A80" s="51" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B80" s="52"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
+        <v>802</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -18065,195 +18135,195 @@
         <v>622</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>817</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>826</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
+        <v>827</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>828</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>901</v>
-      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="50" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B107" s="51"/>
+      <c r="A107" s="51" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B107" s="52"/>
     </row>
     <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -18273,208 +18343,208 @@
     </row>
     <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B113" s="16" t="s">
         <v>1082</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="50" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B115" s="51"/>
+      <c r="A115" s="51" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B115" s="52"/>
     </row>
     <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>1134</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>1164</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -18482,133 +18552,133 @@
         <v>398</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>1166</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>1170</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>1172</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>1180</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>1182</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>1184</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>1186</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>1190</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>1193</v>
-      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="50" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B152" s="51"/>
+      <c r="A152" s="51" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B152" s="52"/>
     </row>
     <row r="153" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>1196</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>1197</v>
       </c>
     </row>
   </sheetData>
@@ -18644,17 +18714,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>1471</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -18670,7 +18740,7 @@
         <v>395</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18694,7 +18764,7 @@
         <v>592</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -18710,7 +18780,7 @@
         <v>400</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -18734,7 +18804,7 @@
         <v>461</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -18766,7 +18836,7 @@
         <v>412</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18822,7 +18892,7 @@
         <v>413</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -18830,12 +18900,12 @@
         <v>414</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>415</v>
@@ -18891,10 +18961,10 @@
     </row>
     <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -18923,15 +18993,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>1159</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>450</v>
@@ -18939,21 +19009,21 @@
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>1162</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>1163</v>
-      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="54"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>418</v>
@@ -18972,7 +19042,7 @@
         <v>421</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -19001,7 +19071,7 @@
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>487</v>
@@ -19144,17 +19214,17 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="B65" s="51"/>
+      <c r="B65" s="52"/>
     </row>
     <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>980</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -19162,7 +19232,7 @@
         <v>400</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -19202,7 +19272,7 @@
         <v>507</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19210,7 +19280,7 @@
         <v>508</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -19310,17 +19380,17 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="50" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B87" s="51"/>
+      <c r="A87" s="51" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B87" s="52"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -19350,10 +19420,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -19376,7 +19446,7 @@
         <v>567</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -19392,7 +19462,7 @@
         <v>570</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -19400,7 +19470,7 @@
         <v>571</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -19408,47 +19478,47 @@
         <v>572</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>1616</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>1618</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>1620</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>1623</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -19464,7 +19534,7 @@
         <v>575</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -19525,291 +19595,291 @@
     </row>
     <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>1625</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>1627</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>1629</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>1631</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>1633</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>1635</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>1637</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>1639</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>1641</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>1643</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>1645</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>1647</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>1651</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>1653</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>1655</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>1657</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>1659</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>1661</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>1663</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>1665</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>1667</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>1670</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>1676</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>1674</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>1678</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>1680</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>1683</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>1685</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>1692</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
   </sheetData>
@@ -19836,17 +19906,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>1078</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -19854,7 +19924,7 @@
         <v>398</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -19862,23 +19932,23 @@
         <v>269</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>953</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -19886,135 +19956,135 @@
         <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>959</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>966</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>968</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>972</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>974</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>976</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>986</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>1057</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>1059</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20022,379 +20092,379 @@
         <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
+      <c r="B26" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="55"/>
+      <c r="B28" s="2" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="2" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
         <v>1071</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="2" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="3" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="2" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="2" t="s">
         <v>1068</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="2" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>1074</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
-        <v>988</v>
-      </c>
-      <c r="B37" s="51"/>
+      <c r="A37" s="51" t="s">
+        <v>987</v>
+      </c>
+      <c r="B37" s="52"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>989</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>991</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>993</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>995</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>997</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>999</v>
       </c>
-      <c r="B43" s="17" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="51" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="50" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B45" s="51"/>
+      <c r="B45" s="52"/>
     </row>
     <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>1004</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>1008</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>1012</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>1014</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>1016</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>1018</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="B56" s="2" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="55" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="54" t="s">
+      <c r="B57" s="18" t="s">
         <v>1024</v>
       </c>
-      <c r="B57" s="18" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="B58" s="18" t="s">
         <v>1025</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="18" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>1027</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
         <v>1030</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="54" t="s">
+      <c r="B61" s="18" t="s">
         <v>1031</v>
       </c>
-      <c r="B61" s="18" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="55"/>
+      <c r="B62" s="18" t="s">
         <v>1032</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-      <c r="B62" s="18" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="51" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="50" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B67" s="51"/>
+      <c r="B67" s="52"/>
     </row>
     <row r="68" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>1041</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>1043</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>1045</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>1049</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>1051</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>1053</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -20429,17 +20499,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B1" s="51"/>
+      <c r="A1" s="51" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B2" t="s">
         <v>1699</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20447,7 +20517,7 @@
         <v>699</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20455,7 +20525,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20472,7 +20542,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>702</v>
@@ -20483,7 +20553,7 @@
         <v>703</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20499,7 +20569,7 @@
         <v>718</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20507,7 +20577,7 @@
         <v>705</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20520,10 +20590,10 @@
     </row>
     <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20531,179 +20601,179 @@
         <v>717</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>1707</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>1708</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B16" s="51"/>
+      <c r="A16" s="51" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B16" s="52"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B17" s="42" t="s">
         <v>1697</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B18" t="s">
         <v>1699</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B19" s="42" t="s">
         <v>1702</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>1705</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>1709</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>1712</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>1753</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>1359</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>1758</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>1760</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>1762</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>1766</v>
       </c>
-      <c r="B32" s="43" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
         <v>1767</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
-        <v>1768</v>
-      </c>
       <c r="B33" s="2" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
+      <c r="B34" s="2" t="s">
         <v>1770</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="2" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B35" s="43" t="s">
         <v>1772</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>1774</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1775</v>
       </c>
     </row>
   </sheetData>
@@ -20732,919 +20802,919 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B1" s="51"/>
+      <c r="A1" s="51" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1357</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1359</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1362</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>1365</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>1368</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>1384</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>1389</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>1407</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>1391</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>1393</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>1395</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>1397</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>1399</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>1404</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>1411</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>1413</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>1729</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>1416</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>1418</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>1426</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>1424</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>1429</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>1431</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>1436</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>1439</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>1442</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>1444</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>1447</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>1449</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>1451</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>1453</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>1455</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>1457</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>1459</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>1462</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>1465</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="50" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B64" s="51"/>
+      <c r="A64" s="51" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B64" s="52"/>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>1475</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B67" t="s">
         <v>1477</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>1479</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>1481</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>1483</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>1487</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>1492</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A74" s="44" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>1490</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>1494</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="39" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>1498</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="39" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>1509</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>1501</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>1503</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>1505</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>1511</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>1513</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="38" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>1524</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="44" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>1526</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>1528</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="44" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>1530</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="38" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>1532</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>1534</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="44" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>1536</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="38" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>1538</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="44" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>1542</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="44" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>1544</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>1546</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="38" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>1548</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="38" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>1550</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>1552</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="38" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>1555</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="44" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>1557</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="38" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>1560</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>1562</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="38" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>1564</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>1566</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>1567</v>
       </c>
     </row>
   </sheetData>
@@ -21672,10 +21742,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>607</v>
       </c>
-      <c r="B1" s="51"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -21711,7 +21781,7 @@
         <v>613</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -21751,7 +21821,7 @@
         <v>645</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -21809,7 +21879,7 @@
         <v>661</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21825,7 +21895,7 @@
         <v>664</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -21838,7 +21908,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>667</v>
@@ -21869,437 +21939,437 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B27" s="51"/>
+      <c r="A27" s="51" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B27" s="52"/>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>1266</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B30" s="34" t="s">
         <v>1271</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1269</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1273</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1275</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1278</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>1280</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>1284</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>1286</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>1290</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>1292</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>1294</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>1296</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>1298</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1300</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>1302</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>1306</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>1309</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>1312</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>1314</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>1316</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>1321</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>1323</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>1325</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>1327</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>1329</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B62" s="51"/>
+      <c r="A62" s="51" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B62" s="52"/>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>1570</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>1572</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>1574</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>1577</v>
-      </c>
     </row>
     <row r="68" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="55" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B68" s="40" t="s">
         <v>1580</v>
       </c>
-      <c r="B68" s="40" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="55"/>
+      <c r="B69" s="40" t="s">
         <v>1581</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="40" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>1583</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>1585</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>1587</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>1589</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>1591</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>1593</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>1595</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>1597</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>1600</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>1602</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="1859">
   <si>
     <t>JDK</t>
   </si>
@@ -13692,6 +13692,15 @@
   </si>
   <si>
     <t>http://tutorials.jenkov.com/java-collections/index.html</t>
+  </si>
+  <si>
+    <t>refer w_side_effects_on_collection_parallel_stream.doc in (JavaPrep\images\1_core_java)</t>
+  </si>
+  <si>
+    <t>Side effects and precautions on using collections parallel streams</t>
+  </si>
+  <si>
+    <t>Clustering</t>
   </si>
 </sst>
 </file>
@@ -14337,10 +14346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14915,6 +14924,11 @@
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>1756</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>1858</v>
       </c>
     </row>
   </sheetData>
@@ -15174,16 +15188,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="B286" sqref="B286"/>
+    <sheetView topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="127.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17005,7 +17019,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A229" s="31" t="s">
         <v>874</v>
       </c>
@@ -17455,6 +17469,14 @@
       </c>
       <c r="B285" s="2" t="s">
         <v>1816</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>1856</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="1869">
   <si>
     <t>JDK</t>
   </si>
@@ -13701,6 +13701,36 @@
   </si>
   <si>
     <t>Clustering</t>
+  </si>
+  <si>
+    <t>JBOSS reference documentation by Redhat</t>
+  </si>
+  <si>
+    <t>https://access.redhat.com/documentation/en-US/index.html</t>
+  </si>
+  <si>
+    <t>min, max, sum, count, average etc</t>
+  </si>
+  <si>
+    <t>Coding Sites</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com</t>
+  </si>
+  <si>
+    <t>avinashbabu.donthu@gmail.com/ha0s5t</t>
+  </si>
+  <si>
+    <t>http://www.spoj.com/</t>
+  </si>
+  <si>
+    <t>http://www.topcoder.com/</t>
+  </si>
+  <si>
+    <t>Wildfly</t>
+  </si>
+  <si>
+    <t>https://docs.jboss.org/author/display/WFLY8/Remote+EJB+invocations+via+JNDI+-+EJB+client+API+or+remote-naming+project?_sscc=t</t>
   </si>
 </sst>
 </file>
@@ -13874,7 +13904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14018,6 +14048,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -14346,10 +14379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14906,32 +14939,75 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>1716</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>1858</v>
       </c>
     </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="52" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B88" s="53"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B89" s="51" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>1866</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A88:B88"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
     <hyperlink ref="B68" r:id="rId2"/>
@@ -14952,9 +15028,11 @@
     <hyperlink ref="B30" r:id="rId17"/>
     <hyperlink ref="B34" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
     <hyperlink ref="B33" r:id="rId19"/>
+    <hyperlink ref="B86" r:id="rId20"/>
+    <hyperlink ref="B87" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -14973,10 +15051,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>1818</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
@@ -15123,10 +15201,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>698</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -15190,8 +15268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B286"/>
   <sheetViews>
-    <sheetView topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="A287" sqref="A287"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15201,10 +15279,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15915,7 +15993,7 @@
         <v>205</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>365</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17428,7 +17506,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A280" s="53" t="s">
+      <c r="A280" s="54" t="s">
         <v>1806</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -17436,7 +17514,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A281" s="53"/>
+      <c r="A281" s="54"/>
       <c r="B281" s="2" t="s">
         <v>1808</v>
       </c>
@@ -17450,7 +17528,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A283" s="53" t="s">
+      <c r="A283" s="54" t="s">
         <v>1811</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -17458,7 +17536,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A284" s="53"/>
+      <c r="A284" s="54"/>
       <c r="B284" s="2" t="s">
         <v>1814</v>
       </c>
@@ -17505,10 +17583,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>901</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -18131,10 +18209,10 @@
       <c r="B79" s="23"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="52" t="s">
         <v>1223</v>
       </c>
-      <c r="B80" s="52"/>
+      <c r="B80" s="53"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -18342,10 +18420,10 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="51" t="s">
+      <c r="A107" s="52" t="s">
         <v>1229</v>
       </c>
-      <c r="B107" s="52"/>
+      <c r="B107" s="53"/>
     </row>
     <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -18404,10 +18482,10 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="51" t="s">
+      <c r="A115" s="52" t="s">
         <v>1228</v>
       </c>
-      <c r="B115" s="52"/>
+      <c r="B115" s="53"/>
     </row>
     <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -18690,10 +18768,10 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="51" t="s">
+      <c r="A152" s="52" t="s">
         <v>1194</v>
       </c>
-      <c r="B152" s="52"/>
+      <c r="B152" s="53"/>
     </row>
     <row r="153" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -18736,10 +18814,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -19038,10 +19116,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="55" t="s">
         <v>435</v>
       </c>
-      <c r="B39" s="54"/>
+      <c r="B39" s="55"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -19236,10 +19314,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="52" t="s">
         <v>500</v>
       </c>
-      <c r="B65" s="52"/>
+      <c r="B65" s="53"/>
     </row>
     <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -19402,10 +19480,10 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="51" t="s">
+      <c r="A87" s="52" t="s">
         <v>1245</v>
       </c>
-      <c r="B87" s="52"/>
+      <c r="B87" s="53"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -19442,10 +19520,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -19928,10 +20006,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -20118,7 +20196,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="56" t="s">
         <v>1069</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -20126,13 +20204,13 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="2" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="56" t="s">
         <v>1070</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -20140,13 +20218,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="2" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="54" t="s">
         <v>1071</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -20154,19 +20232,19 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="3" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="2" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="2" t="s">
         <v>1068</v>
       </c>
@@ -20204,10 +20282,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="52" t="s">
         <v>987</v>
       </c>
-      <c r="B37" s="52"/>
+      <c r="B37" s="53"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -20258,10 +20336,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>1000</v>
       </c>
-      <c r="B45" s="52"/>
+      <c r="B45" s="53"/>
     </row>
     <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -20352,7 +20430,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="56" t="s">
         <v>1023</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -20360,7 +20438,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="18" t="s">
         <v>1025</v>
       </c>
@@ -20382,7 +20460,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="56" t="s">
         <v>1030</v>
       </c>
       <c r="B61" s="18" t="s">
@@ -20390,7 +20468,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="18" t="s">
         <v>1032</v>
       </c>
@@ -20420,10 +20498,10 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="51" t="s">
+      <c r="A67" s="52" t="s">
         <v>1039</v>
       </c>
-      <c r="B67" s="52"/>
+      <c r="B67" s="53"/>
     </row>
     <row r="68" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -20521,10 +20599,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>1227</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -20635,10 +20713,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="52" t="s">
         <v>1695</v>
       </c>
-      <c r="B16" s="52"/>
+      <c r="B16" s="53"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -20769,7 +20847,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="56" t="s">
         <v>1767</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -20777,7 +20855,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="2" t="s">
         <v>1770</v>
       </c>
@@ -20824,10 +20902,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>1472</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -21326,10 +21404,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="52" t="s">
         <v>1473</v>
       </c>
-      <c r="B64" s="52"/>
+      <c r="B64" s="53"/>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
@@ -21764,10 +21842,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>607</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -21961,10 +22039,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>1264</v>
       </c>
-      <c r="B27" s="52"/>
+      <c r="B27" s="53"/>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -22239,10 +22317,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="52" t="s">
         <v>1567</v>
       </c>
-      <c r="B62" s="52"/>
+      <c r="B62" s="53"/>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -22285,7 +22363,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="56" t="s">
         <v>1579</v>
       </c>
       <c r="B68" s="40" t="s">
@@ -22293,7 +22371,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="40" t="s">
         <v>1581</v>
       </c>

--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="3" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="Servlets-JSP" sheetId="10" r:id="rId8"/>
     <sheet name="Tools" sheetId="8" r:id="rId9"/>
     <sheet name="Java Interview Ques" sheetId="11" r:id="rId10"/>
-    <sheet name="Amazon interview prep" sheetId="4" r:id="rId11"/>
+    <sheet name="Algorithms" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="1869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="1887">
   <si>
     <t>JDK</t>
   </si>
@@ -13731,6 +13731,60 @@
   </si>
   <si>
     <t>https://docs.jboss.org/author/display/WFLY8/Remote+EJB+invocations+via+JNDI+-+EJB+client+API+or+remote-naming+project?_sscc=t</t>
+  </si>
+  <si>
+    <t>Linked List questions</t>
+  </si>
+  <si>
+    <t>how will you find the middle of the linked list - 2 pointer approach</t>
+  </si>
+  <si>
+    <t>how will you display the linked list from end - stack</t>
+  </si>
+  <si>
+    <t>check whether given linked list is even or odd</t>
+  </si>
+  <si>
+    <t>if head of the linked list is pointing to kth element, how will you get the elements before kth  element</t>
+  </si>
+  <si>
+    <t>given two sorted linked lists, we need to merge them into third linked list in sorted order</t>
+  </si>
+  <si>
+    <t>reverse the linked list in pairs, input: 1-&gt;2-&gt;3-&gt;4-&gt;X, output:2-&gt;1-&gt;4-&gt;3-&gt;X</t>
+  </si>
+  <si>
+    <t>given a binary tree, convert it into doubly linked list</t>
+  </si>
+  <si>
+    <t>sort the linked list</t>
+  </si>
+  <si>
+    <t>split the circular linked list into two equal parts. if the number of nodes in the list are odd then make a first list one node extra than second list</t>
+  </si>
+  <si>
+    <t>how will you check if linked list is palindrome or not?</t>
+  </si>
+  <si>
+    <t>exchange adjucent elements in a linked list</t>
+  </si>
+  <si>
+    <t>for a give value K (K&gt;0) reverse block of K nodes in a list. Input: 1,2,3,4,5,6,7,8,9 output: 2: 2,1,4,3,6,5,8,7,9; output:3:3,2,1,6,5,4,9,8,7</t>
+  </si>
+  <si>
+    <t>JosephusCircle</t>
+  </si>
+  <si>
+    <t>given a linked list consists of data, next pointer and also a random pointer which points to a random node of a list. Give an algorithm for the cloning the list</t>
+  </si>
+  <si>
+    <t>Find a cycle in linked list</t>
+  </si>
+  <si>
+    <t>find the length of linked list</t>
+  </si>
+  <si>
+    <t>find kth element from last in a linked list</t>
   </si>
 </sst>
 </file>
@@ -13904,7 +13958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14048,6 +14102,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -14381,7 +14438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
@@ -14981,10 +15038,10 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="52" t="s">
+      <c r="A88" s="53" t="s">
         <v>1862</v>
       </c>
-      <c r="B88" s="53"/>
+      <c r="B88" s="54"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
@@ -15040,8 +15097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15051,10 +15108,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>1818</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
@@ -15187,73 +15244,165 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="1" max="1" width="123.7109375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>698</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="52" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>360</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>362</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B11" s="54"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>1886</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" display="http://www.geeksforgeeks.org/amazon-interview-set-27/"/>
@@ -15279,10 +15428,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -17441,7 +17590,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="45" t="s">
         <v>1793</v>
       </c>
@@ -17506,7 +17655,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A280" s="54" t="s">
+      <c r="A280" s="55" t="s">
         <v>1806</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -17514,7 +17663,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A281" s="54"/>
+      <c r="A281" s="55"/>
       <c r="B281" s="2" t="s">
         <v>1808</v>
       </c>
@@ -17528,7 +17677,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A283" s="54" t="s">
+      <c r="A283" s="55" t="s">
         <v>1811</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -17536,7 +17685,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A284" s="54"/>
+      <c r="A284" s="55"/>
       <c r="B284" s="2" t="s">
         <v>1814</v>
       </c>
@@ -17583,10 +17732,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>901</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -18209,10 +18358,10 @@
       <c r="B79" s="23"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="52" t="s">
+      <c r="A80" s="53" t="s">
         <v>1223</v>
       </c>
-      <c r="B80" s="53"/>
+      <c r="B80" s="54"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -18420,10 +18569,10 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="52" t="s">
+      <c r="A107" s="53" t="s">
         <v>1229</v>
       </c>
-      <c r="B107" s="53"/>
+      <c r="B107" s="54"/>
     </row>
     <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -18482,10 +18631,10 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="52" t="s">
+      <c r="A115" s="53" t="s">
         <v>1228</v>
       </c>
-      <c r="B115" s="53"/>
+      <c r="B115" s="54"/>
     </row>
     <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -18768,10 +18917,10 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="52" t="s">
+      <c r="A152" s="53" t="s">
         <v>1194</v>
       </c>
-      <c r="B152" s="53"/>
+      <c r="B152" s="54"/>
     </row>
     <row r="153" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -18814,10 +18963,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -19116,10 +19265,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="56" t="s">
         <v>435</v>
       </c>
-      <c r="B39" s="55"/>
+      <c r="B39" s="56"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -19314,10 +19463,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="53" t="s">
         <v>500</v>
       </c>
-      <c r="B65" s="53"/>
+      <c r="B65" s="54"/>
     </row>
     <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -19480,10 +19629,10 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="52" t="s">
+      <c r="A87" s="53" t="s">
         <v>1245</v>
       </c>
-      <c r="B87" s="53"/>
+      <c r="B87" s="54"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -19520,10 +19669,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -20006,10 +20155,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -20196,7 +20345,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="57" t="s">
         <v>1069</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -20204,13 +20353,13 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="2" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="57" t="s">
         <v>1070</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -20218,13 +20367,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="2" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="55" t="s">
         <v>1071</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -20232,19 +20381,19 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="3" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="2" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="2" t="s">
         <v>1068</v>
       </c>
@@ -20282,10 +20431,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="53" t="s">
         <v>987</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="54"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -20336,10 +20485,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>1000</v>
       </c>
-      <c r="B45" s="53"/>
+      <c r="B45" s="54"/>
     </row>
     <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -20430,7 +20579,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="57" t="s">
         <v>1023</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -20438,7 +20587,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="18" t="s">
         <v>1025</v>
       </c>
@@ -20460,7 +20609,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="57" t="s">
         <v>1030</v>
       </c>
       <c r="B61" s="18" t="s">
@@ -20468,7 +20617,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="18" t="s">
         <v>1032</v>
       </c>
@@ -20498,10 +20647,10 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="52" t="s">
+      <c r="A67" s="53" t="s">
         <v>1039</v>
       </c>
-      <c r="B67" s="53"/>
+      <c r="B67" s="54"/>
     </row>
     <row r="68" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -20599,10 +20748,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>1227</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -20713,10 +20862,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="53" t="s">
         <v>1695</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="54"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -20847,7 +20996,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="57" t="s">
         <v>1767</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -20855,7 +21004,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="2" t="s">
         <v>1770</v>
       </c>
@@ -20902,10 +21051,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>1472</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -21404,10 +21553,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="53" t="s">
         <v>1473</v>
       </c>
-      <c r="B64" s="53"/>
+      <c r="B64" s="54"/>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
@@ -21842,10 +21991,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>607</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -22039,10 +22188,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>1264</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="54"/>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -22317,10 +22466,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="53" t="s">
         <v>1567</v>
       </c>
-      <c r="B62" s="53"/>
+      <c r="B62" s="54"/>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -22363,7 +22512,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="57" t="s">
         <v>1579</v>
       </c>
       <c r="B68" s="40" t="s">
@@ -22371,7 +22520,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="40" t="s">
         <v>1581</v>
       </c>

--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="1887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1893">
   <si>
     <t>JDK</t>
   </si>
@@ -12376,9 +12376,6 @@
   </si>
   <si>
     <t>GitHub</t>
-  </si>
-  <si>
-    <t>@SuppressWarnings("deprecation","unchecked","rawtypes", "serial", "unused");</t>
   </si>
   <si>
     <t>REST Web Services</t>
@@ -13785,6 +13782,27 @@
   </si>
   <si>
     <t>find kth element from last in a linked list</t>
+  </si>
+  <si>
+    <t>@SuppressWarnings("deprecation","unchecked","rawtypes", "serial", "unused","null");</t>
+  </si>
+  <si>
+    <t>Memory efficient linked list. XOR linked list</t>
+  </si>
+  <si>
+    <t>Stack functionalities - push, pop, top, size, isEmpty, isFull</t>
+  </si>
+  <si>
+    <t>Stack implementations - simple array, dynamic array(uses array doubling), linked list</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Discuss how stack can be used for checking balancing of symbols</t>
+  </si>
+  <si>
+    <t>Discuss Infix to postfix conversion algorithm using stack</t>
   </si>
 </sst>
 </file>
@@ -13958,7 +13976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14111,6 +14129,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14541,7 +14562,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -14643,16 +14664,16 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>1850</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>1851</v>
       </c>
       <c r="C30" s="50"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
@@ -14665,19 +14686,19 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>1854</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>1855</v>
       </c>
       <c r="C33" s="50"/>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>1852</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>1853</v>
       </c>
       <c r="C34" s="50"/>
     </row>
@@ -14827,7 +14848,7 @@
         <v>284</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -14917,7 +14938,7 @@
         <v>883</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -14975,90 +14996,90 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>1717</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>1859</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>1867</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>1868</v>
-      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="53" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B88" s="54"/>
+      <c r="A88" s="54" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B88" s="55"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B89" s="51" t="s">
         <v>1863</v>
-      </c>
-      <c r="B89" s="51" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
   </sheetData>
@@ -15108,129 +15129,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>1818</v>
-      </c>
-      <c r="B1" s="54"/>
+      <c r="A1" s="54" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>1820</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>1822</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>1825</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B7" s="47" t="s">
         <v>1827</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>1829</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>1831</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>1833</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>1835</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>1837</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>1839</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B14" s="47" t="s">
         <v>1841</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>1843</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>1845</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>1846</v>
       </c>
     </row>
   </sheetData>
@@ -15244,24 +15265,24 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="123.7109375" style="52" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="104.7109375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="53" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>698</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
@@ -15309,100 +15330,130 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>1869</v>
-      </c>
-      <c r="B11" s="54"/>
+      <c r="A11" s="54" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B11" s="55"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>1873</v>
+        <v>1872</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>1887</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
         <v>1877</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
         <v>1879</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
         <v>1883</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
         <v>1884</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
-        <v>1886</v>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B29" s="55"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="52" t="s">
+        <v>1892</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" display="http://www.geeksforgeeks.org/amazon-interview-set-27/"/>
@@ -15415,10 +15466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15428,10 +15479,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16142,7 +16193,7 @@
         <v>205</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16422,7 +16473,7 @@
         <v>715</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1694</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -17520,95 +17571,95 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>1775</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>1777</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>1779</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>1781</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>1783</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>1785</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A269" s="48" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>1787</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>1789</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>1791</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="45" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>1793</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>1795</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>365</v>
@@ -17616,10 +17667,10 @@
     </row>
     <row r="275" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>1798</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -17627,90 +17678,97 @@
         <v>125</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>1800</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>1802</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="B279" s="2" t="s">
+    </row>
+    <row r="280" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A280" s="56" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A280" s="55" t="s">
+      <c r="B280" s="2" t="s">
         <v>1806</v>
       </c>
-      <c r="B280" s="2" t="s">
+    </row>
+    <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A281" s="56"/>
+      <c r="B281" s="2" t="s">
         <v>1807</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A281" s="55"/>
-      <c r="B281" s="2" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A283" s="56" t="s">
         <v>1810</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B283" s="2" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A284" s="56"/>
+      <c r="B284" s="2" t="s">
         <v>1813</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A283" s="55" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A284" s="55"/>
-      <c r="B284" s="2" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>1815</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1856</v>
-      </c>
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B288" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A280:A281"/>
     <mergeCell ref="A283:A284"/>
+    <mergeCell ref="A288:B288"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -17732,10 +17790,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>901</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -18358,10 +18416,10 @@
       <c r="B79" s="23"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="54" t="s">
         <v>1223</v>
       </c>
-      <c r="B80" s="54"/>
+      <c r="B80" s="55"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -18569,10 +18627,10 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="53" t="s">
+      <c r="A107" s="54" t="s">
         <v>1229</v>
       </c>
-      <c r="B107" s="54"/>
+      <c r="B107" s="55"/>
     </row>
     <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -18631,10 +18689,10 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="53" t="s">
+      <c r="A115" s="54" t="s">
         <v>1228</v>
       </c>
-      <c r="B115" s="54"/>
+      <c r="B115" s="55"/>
     </row>
     <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -18917,10 +18975,10 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="53" t="s">
+      <c r="A152" s="54" t="s">
         <v>1194</v>
       </c>
-      <c r="B152" s="54"/>
+      <c r="B152" s="55"/>
     </row>
     <row r="153" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -18963,10 +19021,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -19265,10 +19323,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="B39" s="56"/>
+      <c r="B39" s="57"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -19463,10 +19521,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="54" t="s">
         <v>500</v>
       </c>
-      <c r="B65" s="54"/>
+      <c r="B65" s="55"/>
     </row>
     <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -19629,10 +19687,10 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="54" t="s">
         <v>1245</v>
       </c>
-      <c r="B87" s="54"/>
+      <c r="B87" s="55"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -19669,10 +19727,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -20155,10 +20213,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -20345,7 +20403,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="58" t="s">
         <v>1069</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -20353,13 +20411,13 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="2" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="58" t="s">
         <v>1070</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -20367,13 +20425,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="2" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="56" t="s">
         <v>1071</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -20381,19 +20439,19 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="3" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="2" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="2" t="s">
         <v>1068</v>
       </c>
@@ -20431,10 +20489,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="54" t="s">
         <v>987</v>
       </c>
-      <c r="B37" s="54"/>
+      <c r="B37" s="55"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -20485,10 +20543,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="54" t="s">
         <v>1000</v>
       </c>
-      <c r="B45" s="54"/>
+      <c r="B45" s="55"/>
     </row>
     <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -20579,7 +20637,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="58" t="s">
         <v>1023</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -20587,7 +20645,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="18" t="s">
         <v>1025</v>
       </c>
@@ -20609,7 +20667,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="58" t="s">
         <v>1030</v>
       </c>
       <c r="B61" s="18" t="s">
@@ -20617,7 +20675,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="18" t="s">
         <v>1032</v>
       </c>
@@ -20647,10 +20705,10 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="54" t="s">
         <v>1039</v>
       </c>
-      <c r="B67" s="54"/>
+      <c r="B67" s="55"/>
     </row>
     <row r="68" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -20748,17 +20806,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>1227</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B2" t="s">
         <v>1698</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20855,88 +20913,88 @@
     </row>
     <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>1706</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>1707</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>1695</v>
-      </c>
-      <c r="B16" s="54"/>
+      <c r="A16" s="54" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B16" s="55"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B17" s="42" t="s">
         <v>1696</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B18" t="s">
         <v>1698</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B19" s="42" t="s">
         <v>1701</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>1704</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>1708</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>1711</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>1752</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20949,26 +21007,26 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>1757</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>1759</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>1761</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -20976,53 +21034,53 @@
         <v>1356</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>1765</v>
       </c>
-      <c r="B32" s="43" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="58" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
-        <v>1767</v>
-      </c>
       <c r="B33" s="2" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="58"/>
+      <c r="B34" s="2" t="s">
         <v>1769</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="2" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B35" s="43" t="s">
         <v>1771</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>1773</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1774</v>
       </c>
     </row>
   </sheetData>
@@ -21051,10 +21109,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>1472</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -21077,7 +21135,7 @@
         <v>1360</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21093,7 +21151,7 @@
         <v>1363</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -21109,7 +21167,7 @@
         <v>1366</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21149,7 +21207,7 @@
         <v>1386</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -21213,7 +21271,7 @@
         <v>1400</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -21221,7 +21279,7 @@
         <v>1401</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21229,7 +21287,7 @@
         <v>1402</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21245,7 +21303,7 @@
         <v>1405</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -21277,7 +21335,7 @@
         <v>1386</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21290,10 +21348,10 @@
     </row>
     <row r="31" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>1728</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -21301,7 +21359,7 @@
         <v>1427</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -21325,7 +21383,7 @@
         <v>1419</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21333,7 +21391,7 @@
         <v>1421</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -21341,7 +21399,7 @@
         <v>1422</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21349,7 +21407,7 @@
         <v>1420</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -21378,10 +21436,10 @@
     </row>
     <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21397,7 +21455,7 @@
         <v>1434</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -21445,7 +21503,7 @@
         <v>1445</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -21533,7 +21591,7 @@
         <v>1466</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21541,7 +21599,7 @@
         <v>1467</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21549,18 +21607,18 @@
         <v>1468</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="54" t="s">
         <v>1473</v>
       </c>
-      <c r="B64" s="54"/>
+      <c r="B64" s="55"/>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>1520</v>
@@ -21619,7 +21677,7 @@
         <v>1488</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21667,7 +21725,7 @@
         <v>1499</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21680,7 +21738,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>1506</v>
@@ -21691,7 +21749,7 @@
         <v>1507</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21843,12 +21901,12 @@
         <v>1539</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>1540</v>
@@ -21907,7 +21965,7 @@
         <v>1553</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -21991,10 +22049,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>607</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -22188,10 +22246,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="54" t="s">
         <v>1264</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="55"/>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -22466,10 +22524,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="54" t="s">
         <v>1567</v>
       </c>
-      <c r="B62" s="54"/>
+      <c r="B62" s="55"/>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -22512,7 +22570,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="58" t="s">
         <v>1579</v>
       </c>
       <c r="B68" s="40" t="s">
@@ -22520,7 +22578,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="40" t="s">
         <v>1581</v>
       </c>

--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="1992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1994">
   <si>
     <t>JDK</t>
   </si>
@@ -14371,6 +14371,16 @@
   </si>
   <si>
     <t>It is possible to define a method that will be called just before an object's final destruction by the garbage collector. This method is called finalize( ), and it can be used to ensure that an object terminates cleanly</t>
+  </si>
+  <si>
+    <t>class having private constructor with sub class - we can not have sub class</t>
+  </si>
+  <si>
+    <t>public class SuperClass1 {
+ private SuperClass1() { }  }
+/*we can not extend class having private constructor
+ * if we remove comments around extends compiler error will come*/
+public class SubClass1 /*extends SuperClass1*/{ }</t>
   </si>
 </sst>
 </file>
@@ -14552,7 +14562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14739,6 +14749,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -15682,10 +15695,10 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="65" t="s">
+      <c r="A90" s="66" t="s">
         <v>1829</v>
       </c>
-      <c r="B90" s="66"/>
+      <c r="B90" s="67"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
@@ -15741,7 +15754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -15752,10 +15765,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>1785</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
@@ -15918,10 +15931,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>695</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
@@ -15969,10 +15982,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="66" t="s">
         <v>1836</v>
       </c>
-      <c r="B11" s="66"/>
+      <c r="B11" s="67"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
@@ -16063,10 +16076,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="66" t="s">
         <v>1857</v>
       </c>
-      <c r="B29" s="66"/>
+      <c r="B29" s="67"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
@@ -16110,10 +16123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B353"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="B290" sqref="B290"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="A309" sqref="A309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16123,10 +16136,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16985,7 +16998,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A109" s="67" t="s">
+      <c r="A109" s="68" t="s">
         <v>1774</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -16993,7 +17006,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
+      <c r="A110" s="68"/>
       <c r="B110" s="2" t="s">
         <v>1776</v>
       </c>
@@ -17007,7 +17020,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="67" t="s">
+      <c r="A112" s="68" t="s">
         <v>1778</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -17015,7 +17028,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
+      <c r="A113" s="68"/>
       <c r="B113" s="2" t="s">
         <v>1781</v>
       </c>
@@ -18425,304 +18438,306 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="64"/>
+    <row r="290" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A290" s="65" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>1993</v>
+      </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="65" t="s">
+      <c r="A291" s="64"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="65"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="65"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B291" s="66"/>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="53" t="s">
+      <c r="B294" s="67"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="53" t="s">
         <v>1876</v>
       </c>
-      <c r="B292" s="53" t="s">
+      <c r="B295" s="53" t="s">
         <v>1877</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="53" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="53" t="s">
         <v>1878</v>
       </c>
-      <c r="B293" s="53" t="s">
+      <c r="B296" s="53" t="s">
         <v>1879</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A294" s="53" t="s">
+    <row r="297" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A297" s="53" t="s">
         <v>1935</v>
       </c>
-      <c r="B294" s="53" t="s">
+      <c r="B297" s="53" t="s">
         <v>1883</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A295" s="67" t="s">
+    <row r="298" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A298" s="68" t="s">
         <v>1888</v>
       </c>
-      <c r="B295" s="53" t="s">
+      <c r="B298" s="53" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A296" s="67"/>
-      <c r="B296" s="53" t="s">
+    <row r="299" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A299" s="68"/>
+      <c r="B299" s="53" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A297" s="67"/>
-      <c r="B297" s="53" t="s">
+    <row r="300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A300" s="68"/>
+      <c r="B300" s="53" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A298" s="53" t="s">
+    <row r="301" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A301" s="53" t="s">
         <v>1884</v>
       </c>
-      <c r="B298" s="53" t="s">
+      <c r="B301" s="53" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A299" s="67" t="s">
+    <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A302" s="68" t="s">
         <v>1886</v>
       </c>
-      <c r="B299" s="53" t="s">
+      <c r="B302" s="53" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A300" s="67"/>
-      <c r="B300" s="53" t="s">
+    <row r="303" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A303" s="68"/>
+      <c r="B303" s="53" t="s">
         <v>1936</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="53" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="53" t="s">
         <v>1889</v>
       </c>
-      <c r="B301" s="53" t="s">
+      <c r="B304" s="53" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A302" s="57" t="s">
+    <row r="305" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A305" s="57" t="s">
         <v>1891</v>
       </c>
-      <c r="B302" s="53" t="s">
+      <c r="B305" s="53" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A303" s="57" t="s">
+    <row r="306" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A306" s="57" t="s">
         <v>1893</v>
       </c>
-      <c r="B303" s="53" t="s">
+      <c r="B306" s="53" t="s">
         <v>1937</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A304" s="57" t="s">
+    <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="57" t="s">
         <v>1894</v>
       </c>
-      <c r="B304" s="53" t="s">
+      <c r="B307" s="53" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A305" s="58" t="s">
+    <row r="308" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="58" t="s">
         <v>1896</v>
       </c>
-      <c r="B305" s="53" t="s">
+      <c r="B308" s="53" t="s">
         <v>1938</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A306" s="57" t="s">
+    <row r="309" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A309" s="57" t="s">
         <v>1897</v>
       </c>
-      <c r="B306" s="53" t="s">
+      <c r="B309" s="53" t="s">
         <v>1898</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="53" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="53" t="s">
         <v>1899</v>
       </c>
-      <c r="B307" s="53" t="s">
+      <c r="B310" s="53" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A308" s="53" t="s">
+    <row r="311" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A311" s="53" t="s">
         <v>1901</v>
       </c>
-      <c r="B308" s="53" t="s">
+      <c r="B311" s="53" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="53" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="53" t="s">
         <v>1903</v>
       </c>
-      <c r="B309" s="53" t="s">
+      <c r="B312" s="53" t="s">
         <v>1904</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A310" s="57" t="s">
-        <v>1905</v>
-      </c>
-      <c r="B310" s="53" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A311" s="57" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B311" s="53" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A312" s="57" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B312" s="55" t="s">
-        <v>1912</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="57" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B313" s="53" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="57" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B314" s="53" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="57" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B315" s="55" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="57" t="s">
         <v>1909</v>
       </c>
-      <c r="B313" s="55" t="s">
+      <c r="B316" s="55" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A314" s="67" t="s">
+    <row r="317" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A317" s="68" t="s">
         <v>1913</v>
       </c>
-      <c r="B314" s="55" t="s">
+      <c r="B317" s="55" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A315" s="67"/>
-      <c r="B315" s="55" t="s">
+    <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="68"/>
+      <c r="B318" s="55" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A316" s="67"/>
-      <c r="B316" s="55" t="s">
+    <row r="319" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A319" s="68"/>
+      <c r="B319" s="55" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="55" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="55" t="s">
         <v>1917</v>
       </c>
-      <c r="B317" s="55" t="s">
+      <c r="B320" s="55" t="s">
         <v>1918</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="55" t="s">
-        <v>1960</v>
-      </c>
-      <c r="B318" s="55" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="55" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B319" s="55" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A320" s="55" t="s">
-        <v>1964</v>
-      </c>
-      <c r="B320" s="55" t="s">
-        <v>1965</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="55" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="B321" s="55" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="55" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="B322" s="55" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="55" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="B323" s="55" t="s">
-        <v>1971</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="55" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="B324" s="55" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="55" t="s">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="B325" s="55" t="s">
-        <v>1975</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="55" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B326" s="55" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="55" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B327" s="55" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="55" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B328" s="55" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="55" t="s">
         <v>1976</v>
       </c>
-      <c r="B326" s="55" t="s">
+      <c r="B329" s="55" t="s">
         <v>1977</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="53" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="53" t="s">
         <v>1978</v>
       </c>
-      <c r="B327" s="53" t="s">
+      <c r="B330" s="53" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="62"/>
-      <c r="B328" s="62"/>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="62"/>
-      <c r="B329" s="62"/>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="62"/>
-      <c r="B330" s="62"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="62"/>
@@ -18784,79 +18799,91 @@
       <c r="A345" s="62"/>
       <c r="B345" s="62"/>
     </row>
-    <row r="346" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="62"/>
+      <c r="B346" s="62"/>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="62"/>
+      <c r="B347" s="62"/>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="62"/>
+      <c r="B348" s="62"/>
+    </row>
+    <row r="349" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
         <v>1860</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B349" s="2" t="s">
         <v>1861</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
-        <v>1866</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
         <v>1868</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B353" s="2" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
+    <row r="354" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
         <v>1870</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B354" s="2" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+    <row r="355" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
         <v>1872</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B355" s="2" t="s">
         <v>1873</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
+    <row r="356" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
         <v>1874</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B356" s="2" t="s">
         <v>1875</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A314:A316"/>
-    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="A317:A319"/>
+    <mergeCell ref="A302:A303"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A109:A110"/>
     <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="A295:A297"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A298:A300"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -18878,10 +18905,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>894</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -19504,10 +19531,10 @@
       <c r="B79" s="23"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="65" t="s">
+      <c r="A80" s="66" t="s">
         <v>1214</v>
       </c>
-      <c r="B80" s="66"/>
+      <c r="B80" s="67"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -19715,10 +19742,10 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="65" t="s">
+      <c r="A107" s="66" t="s">
         <v>1220</v>
       </c>
-      <c r="B107" s="66"/>
+      <c r="B107" s="67"/>
     </row>
     <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -19777,10 +19804,10 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="65" t="s">
+      <c r="A115" s="66" t="s">
         <v>1219</v>
       </c>
-      <c r="B115" s="66"/>
+      <c r="B115" s="67"/>
     </row>
     <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -20063,10 +20090,10 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="65" t="s">
+      <c r="A152" s="66" t="s">
         <v>1185</v>
       </c>
-      <c r="B152" s="66"/>
+      <c r="B152" s="67"/>
     </row>
     <row r="153" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -20109,10 +20136,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -20411,10 +20438,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="69" t="s">
         <v>433</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="69"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -20609,10 +20636,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="65" t="s">
+      <c r="A65" s="66" t="s">
         <v>498</v>
       </c>
-      <c r="B65" s="66"/>
+      <c r="B65" s="67"/>
     </row>
     <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -20775,10 +20802,10 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="65" t="s">
+      <c r="A87" s="66" t="s">
         <v>1236</v>
       </c>
-      <c r="B87" s="66"/>
+      <c r="B87" s="67"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -20815,10 +20842,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21290,8 +21317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21301,10 +21328,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -21507,7 +21534,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="70" t="s">
         <v>1061</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -21515,13 +21542,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="2" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="70" t="s">
         <v>1062</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -21529,13 +21556,13 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="68" t="s">
         <v>1063</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -21543,19 +21570,19 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="3" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="2" t="s">
         <v>1060</v>
       </c>
@@ -21593,10 +21620,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="66" t="s">
         <v>979</v>
       </c>
-      <c r="B39" s="66"/>
+      <c r="B39" s="67"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -21647,10 +21674,10 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="66" t="s">
         <v>992</v>
       </c>
-      <c r="B47" s="66"/>
+      <c r="B47" s="67"/>
     </row>
     <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
@@ -21741,7 +21768,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="70" t="s">
         <v>1015</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -21749,7 +21776,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
+      <c r="A60" s="70"/>
       <c r="B60" s="18" t="s">
         <v>1017</v>
       </c>
@@ -21771,7 +21798,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="69" t="s">
+      <c r="A63" s="70" t="s">
         <v>1022</v>
       </c>
       <c r="B63" s="18" t="s">
@@ -21779,7 +21806,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
+      <c r="A64" s="70"/>
       <c r="B64" s="18" t="s">
         <v>1024</v>
       </c>
@@ -21809,10 +21836,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="66" t="s">
         <v>1031</v>
       </c>
-      <c r="B69" s="66"/>
+      <c r="B69" s="67"/>
     </row>
     <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -21910,10 +21937,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>1218</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -22024,10 +22051,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>1672</v>
       </c>
-      <c r="B16" s="66"/>
+      <c r="B16" s="67"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -22158,7 +22185,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="70" t="s">
         <v>1741</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -22166,7 +22193,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="2" t="s">
         <v>1744</v>
       </c>
@@ -22213,10 +22240,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>1454</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -22715,10 +22742,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="66" t="s">
         <v>1455</v>
       </c>
-      <c r="B64" s="66"/>
+      <c r="B64" s="67"/>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
@@ -23142,8 +23169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23153,10 +23180,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>604</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23350,10 +23377,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="66" t="s">
         <v>1255</v>
       </c>
-      <c r="B27" s="66"/>
+      <c r="B27" s="67"/>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -23628,10 +23655,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="66" t="s">
         <v>1546</v>
       </c>
-      <c r="B62" s="66"/>
+      <c r="B62" s="67"/>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -23674,7 +23701,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="70" t="s">
         <v>1558</v>
       </c>
       <c r="B68" s="40" t="s">
@@ -23682,7 +23709,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="69"/>
+      <c r="A69" s="70"/>
       <c r="B69" s="40" t="s">
         <v>1560</v>
       </c>

--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -18,13 +18,14 @@
     <sheet name="Tools" sheetId="8" r:id="rId9"/>
     <sheet name="Java Interview Ques" sheetId="11" r:id="rId10"/>
     <sheet name="Algorithms" sheetId="4" r:id="rId11"/>
+    <sheet name="DB" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="2002">
   <si>
     <t>JDK</t>
   </si>
@@ -14381,6 +14382,84 @@
 /*we can not extend class having private constructor
  * if we remove comments around extends compiler error will come*/
 public class SubClass1 /*extends SuperClass1*/{ }</t>
+  </si>
+  <si>
+    <t>H2 DB</t>
+  </si>
+  <si>
+    <t>Setup for H2 DB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;hibernate-configuration&gt; &lt;session-factory&gt; 
+  &lt;property name="hibernate.dialect"&gt; org.hibernate.dialect.H2Dialect &lt;/property&gt; 
+  &lt;property name="hibernate.connection.driver_class"&gt; org.h2.Driver &lt;/property&gt;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;!-- url to create db in user home directory --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  &lt;property name="hibernate.connection.url"&gt; jdbc:h2:~/remembral &lt;/property&gt;
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;!-- url to create db in current working directory. Below url is not working, check it in future--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  &lt;!-- &lt;property name="hibernate.connection.url"&gt; jdbc:h2:remembral &lt;/property&gt; --&gt;
+  &lt;property name="hibernate.connection.username"&gt; remembral &lt;/property&gt; 
+  &lt;property name="hibernate.connection.password"&gt; remembral &lt;/property&gt; 
+  &lt;property name="hibernate.show_sql"&gt;true&lt;/property&gt;
+  &lt;property name="hibernate.hbm2ddl.auto"&gt;update&lt;/property&gt;
+ &lt;/session-factory&gt; &lt;/hibernate-configuration&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>1. download h2*.jar and add this to classpath of project. (if maven project - check maven dependency for h2*.jar file)
+2. to use with hibernate add following dialect, driver_class,url properties in cfg.xml file. If db is not present db will be created</t>
+  </si>
+  <si>
+    <t>How to execute a jar file</t>
+  </si>
+  <si>
+    <t>cmd:&gt; java -jar jarfilename.jar</t>
+  </si>
+  <si>
+    <t>datepicker</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/8/javafx/user-interface-tutorial/date-picker.htm</t>
   </si>
 </sst>
 </file>
@@ -14508,7 +14587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -14557,12 +14636,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14756,6 +14844,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14770,6 +14864,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15695,10 +15795,10 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="66" t="s">
+      <c r="A90" s="68" t="s">
         <v>1829</v>
       </c>
-      <c r="B90" s="67"/>
+      <c r="B90" s="69"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
@@ -15765,10 +15865,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>1785</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
@@ -15931,10 +16031,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>695</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
@@ -15982,10 +16082,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="68" t="s">
         <v>1836</v>
       </c>
-      <c r="B11" s="67"/>
+      <c r="B11" s="69"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
@@ -16076,10 +16176,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="68" t="s">
         <v>1857</v>
       </c>
-      <c r="B29" s="67"/>
+      <c r="B29" s="69"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
@@ -16121,12 +16221,56 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.140625" customWidth="1"/>
+    <col min="2" max="2" width="105" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1" s="69"/>
+    </row>
+    <row r="2" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="74"/>
+      <c r="B3" s="66" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="A309" sqref="A309"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16136,10 +16280,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16998,7 +17142,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A109" s="68" t="s">
+      <c r="A109" s="70" t="s">
         <v>1774</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -17006,7 +17150,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A110" s="68"/>
+      <c r="A110" s="70"/>
       <c r="B110" s="2" t="s">
         <v>1776</v>
       </c>
@@ -17020,7 +17164,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="68" t="s">
+      <c r="A112" s="70" t="s">
         <v>1778</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -17028,7 +17172,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="68"/>
+      <c r="A113" s="70"/>
       <c r="B113" s="2" t="s">
         <v>1781</v>
       </c>
@@ -18447,7 +18591,12 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="64"/>
+      <c r="A291" s="64" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>1999</v>
+      </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="65"/>
@@ -18456,10 +18605,10 @@
       <c r="A293" s="65"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="66" t="s">
+      <c r="A294" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B294" s="67"/>
+      <c r="B294" s="69"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="53" t="s">
@@ -18486,7 +18635,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A298" s="68" t="s">
+      <c r="A298" s="70" t="s">
         <v>1888</v>
       </c>
       <c r="B298" s="53" t="s">
@@ -18494,13 +18643,13 @@
       </c>
     </row>
     <row r="299" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A299" s="68"/>
+      <c r="A299" s="70"/>
       <c r="B299" s="53" t="s">
         <v>1881</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A300" s="68"/>
+      <c r="A300" s="70"/>
       <c r="B300" s="53" t="s">
         <v>1882</v>
       </c>
@@ -18514,7 +18663,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A302" s="68" t="s">
+      <c r="A302" s="70" t="s">
         <v>1886</v>
       </c>
       <c r="B302" s="53" t="s">
@@ -18522,7 +18671,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A303" s="68"/>
+      <c r="A303" s="70"/>
       <c r="B303" s="53" t="s">
         <v>1936</v>
       </c>
@@ -18632,7 +18781,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A317" s="68" t="s">
+      <c r="A317" s="70" t="s">
         <v>1913</v>
       </c>
       <c r="B317" s="55" t="s">
@@ -18640,13 +18789,13 @@
       </c>
     </row>
     <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="68"/>
+      <c r="A318" s="70"/>
       <c r="B318" s="55" t="s">
         <v>1915</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A319" s="68"/>
+      <c r="A319" s="70"/>
       <c r="B319" s="55" t="s">
         <v>1916</v>
       </c>
@@ -18905,10 +19054,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>894</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -19531,10 +19680,10 @@
       <c r="B79" s="23"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="66" t="s">
+      <c r="A80" s="68" t="s">
         <v>1214</v>
       </c>
-      <c r="B80" s="67"/>
+      <c r="B80" s="69"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -19742,10 +19891,10 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="66" t="s">
+      <c r="A107" s="68" t="s">
         <v>1220</v>
       </c>
-      <c r="B107" s="67"/>
+      <c r="B107" s="69"/>
     </row>
     <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -19804,10 +19953,10 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="66" t="s">
+      <c r="A115" s="68" t="s">
         <v>1219</v>
       </c>
-      <c r="B115" s="67"/>
+      <c r="B115" s="69"/>
     </row>
     <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -20090,10 +20239,10 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="66" t="s">
+      <c r="A152" s="68" t="s">
         <v>1185</v>
       </c>
-      <c r="B152" s="67"/>
+      <c r="B152" s="69"/>
     </row>
     <row r="153" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -20136,10 +20285,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -20438,10 +20587,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="71" t="s">
         <v>433</v>
       </c>
-      <c r="B39" s="69"/>
+      <c r="B39" s="71"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -20636,10 +20785,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="66" t="s">
+      <c r="A65" s="68" t="s">
         <v>498</v>
       </c>
-      <c r="B65" s="67"/>
+      <c r="B65" s="69"/>
     </row>
     <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -20802,10 +20951,10 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="66" t="s">
+      <c r="A87" s="68" t="s">
         <v>1236</v>
       </c>
-      <c r="B87" s="67"/>
+      <c r="B87" s="69"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -20842,10 +20991,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21328,10 +21477,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -21534,7 +21683,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="72" t="s">
         <v>1061</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -21542,13 +21691,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="2" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="72" t="s">
         <v>1062</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -21556,13 +21705,13 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="70" t="s">
         <v>1063</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -21570,19 +21719,19 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="3" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="2" t="s">
         <v>1060</v>
       </c>
@@ -21620,10 +21769,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="68" t="s">
         <v>979</v>
       </c>
-      <c r="B39" s="67"/>
+      <c r="B39" s="69"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -21674,10 +21823,10 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="68" t="s">
         <v>992</v>
       </c>
-      <c r="B47" s="67"/>
+      <c r="B47" s="69"/>
     </row>
     <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
@@ -21768,7 +21917,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="72" t="s">
         <v>1015</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -21776,7 +21925,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="18" t="s">
         <v>1017</v>
       </c>
@@ -21798,7 +21947,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="72" t="s">
         <v>1022</v>
       </c>
       <c r="B63" s="18" t="s">
@@ -21806,7 +21955,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="70"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="18" t="s">
         <v>1024</v>
       </c>
@@ -21836,10 +21985,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="66" t="s">
+      <c r="A69" s="68" t="s">
         <v>1031</v>
       </c>
-      <c r="B69" s="67"/>
+      <c r="B69" s="69"/>
     </row>
     <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -21937,10 +22086,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>1218</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -22051,10 +22200,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="68" t="s">
         <v>1672</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="69"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -22185,7 +22334,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="72" t="s">
         <v>1741</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -22193,7 +22342,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="2" t="s">
         <v>1744</v>
       </c>
@@ -22240,10 +22389,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>1454</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -22742,10 +22891,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="66" t="s">
+      <c r="A64" s="68" t="s">
         <v>1455</v>
       </c>
-      <c r="B64" s="67"/>
+      <c r="B64" s="69"/>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
@@ -23167,10 +23316,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23180,10 +23329,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>604</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23377,10 +23526,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="68" t="s">
         <v>1255</v>
       </c>
-      <c r="B27" s="67"/>
+      <c r="B27" s="69"/>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -23655,10 +23804,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="66" t="s">
+      <c r="A62" s="68" t="s">
         <v>1546</v>
       </c>
-      <c r="B62" s="67"/>
+      <c r="B62" s="69"/>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -23701,7 +23850,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="70" t="s">
+      <c r="A68" s="72" t="s">
         <v>1558</v>
       </c>
       <c r="B68" s="40" t="s">
@@ -23709,7 +23858,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="70"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="40" t="s">
         <v>1560</v>
       </c>
@@ -23810,17 +23959,33 @@
         <v>1582</v>
       </c>
     </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="68" t="s">
+        <v>876</v>
+      </c>
+      <c r="B84" s="69"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="67" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>2001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A84:B84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B49" r:id="rId1"/>
+    <hyperlink ref="B85" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="2035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="2086">
   <si>
     <t>JDK</t>
   </si>
@@ -14669,6 +14669,194 @@
   </si>
   <si>
     <t>In general parent class loader will be asked to load the class first but where as in the case of WAR - class loader of specific WAR will try to load the class with in the same WAR, if class not found in the WAR then it will be delegated to EAR class loader and EAR deligates to Container class loader and container deligates to system class loaded and system class loader deligates to Bootstrap class loader. Only difference is WAR will check and deligate where as EAR first deligates and checks</t>
+  </si>
+  <si>
+    <t>http://commons.apache.org/proper/commons-bcel/</t>
+  </si>
+  <si>
+    <t>BCEL - Byte Code Engineering Library</t>
+  </si>
+  <si>
+    <t>Some classloaders</t>
+  </si>
+  <si>
+    <t>sun.misc.Launcher$AppClassLoader
+sun.misc.Launcher$ExtClassLoader
+java.net.URLClassLoader
+java.security.SecurityClassLoader
+java.rmi.server.RMIClassLoader
+sun.applet.AppletClassLoader</t>
+  </si>
+  <si>
+    <t>Design Patterns</t>
+  </si>
+  <si>
+    <t>Effective Java</t>
+  </si>
+  <si>
+    <t>RESTful web service</t>
+  </si>
+  <si>
+    <t>Refer JavaPrep/ClassLoading for more material</t>
+  </si>
+  <si>
+    <t>Garbage Collection Topics</t>
+  </si>
+  <si>
+    <t>Ways to make an object eligible for garbage collection
+1. Nullifying reference varable
+2. re assigning reference varable
+3. object created inside method
+4. Island of Isolation</t>
+  </si>
+  <si>
+    <t>Finalization</t>
+  </si>
+  <si>
+    <t>Brief intro to garbage collection</t>
+  </si>
+  <si>
+    <t>In Java, programmer is responsible only for creation of objects and he is not responsible for destruction of useless objects. SUN people provided one assistant which is always running in the background for distruction of useless objects. Just because of this assistant, the chance of failing java program with memory problems is very very less. This assistant is nothing but Garbage Collector</t>
+  </si>
+  <si>
+    <t>Main objective of garbage collector is to destroy objects</t>
+  </si>
+  <si>
+    <t>Garbage collector is best example for Daemon Thread as it is always running in the background.</t>
+  </si>
+  <si>
+    <t>Ways for requesting JVM to run GC
+1. Using System class --&gt; System.gc();
+2. Using Runtime class --&gt; Runtime.gc();</t>
+  </si>
+  <si>
+    <t>Objects which we are not using
+Useless objects</t>
+  </si>
+  <si>
+    <t>Process of garbage collector collecting garbage is called garbage collection</t>
+  </si>
+  <si>
+    <t>1. Garbage collector is responsible for collecting garbage
+2. Which is responsible for destroying useless objects</t>
+  </si>
+  <si>
+    <t>What is the grabage</t>
+  </si>
+  <si>
+    <t>what is Garbage collector</t>
+  </si>
+  <si>
+    <t>what is Garbage collection</t>
+  </si>
+  <si>
+    <t>Java is robust. What this means?</t>
+  </si>
+  <si>
+    <t>Chances for Java program to fail is very very less</t>
+  </si>
+  <si>
+    <t>One example to say Java is robust?</t>
+  </si>
+  <si>
+    <t>One example is garbage collector. Because of GC chances for java program to fail due to OutOfMemoryError is very very less</t>
+  </si>
+  <si>
+    <t>Note on making an object eligible for garbage collection</t>
+  </si>
+  <si>
+    <t>Even though programmer is not responsible to destroy useless objects but it is highly recommended to make an object eligible for GC if no longer required. An object said to be eligible GC if it doesn't contain any reference.</t>
+  </si>
+  <si>
+    <t>Ways to make an object eligible for garbage collection</t>
+  </si>
+  <si>
+    <t>1. Nullifying the reference variable
+2. re assigning reference variable
+3. object created inside method
+4. Islant of Isolation</t>
+  </si>
+  <si>
+    <t>Nullifying reference variable</t>
+  </si>
+  <si>
+    <t>If an object is no longer required, then assign null value to it's reference variables. Then object is automatically eligible for garbage collection</t>
+  </si>
+  <si>
+    <t>Example for nullifying reference variable</t>
+  </si>
+  <si>
+    <t>Re assigning reference variable</t>
+  </si>
+  <si>
+    <t>Objects created inside method</t>
+  </si>
+  <si>
+    <t>Objects created inside method are by default eligible for garbage collection once method completes (because reference variables are local variables of that method and once method completes all local variables will be destroyed)</t>
+  </si>
+  <si>
+    <t>Objects created inside method - Example</t>
+  </si>
+  <si>
+    <t>Objects created inside method - Example 2</t>
+  </si>
+  <si>
+    <t>Island of Isolation</t>
+  </si>
+  <si>
+    <t>Note on Island of Isolation</t>
+  </si>
+  <si>
+    <t>Even though object having reference variable still sometimes it may be eligible for garbage collection (if all references are internal references)</t>
+  </si>
+  <si>
+    <t>Ways for requesting JVM to run grabage collector</t>
+  </si>
+  <si>
+    <t>Once we made an object eligible for GC, it may not be destroyed immediately by the garbage collector. Whenever JVM runs the garbage collector then only objects will be destroyed. But when exactly JVM runs GC, we can't expect it. It depends on JVM and varies JVM to JVM</t>
+  </si>
+  <si>
+    <t>Instead of waiting until JVM runs GC, we can request JVM to run garbage collector. But there is no guarantee whether JVM accepts our request or not. But most of times JVM accepts our request</t>
+  </si>
+  <si>
+    <t>1. java.lang.System.gc();
+2. using java.lang.Runtime class</t>
+  </si>
+  <si>
+    <t>System.gc()</t>
+  </si>
+  <si>
+    <t>java.lang.System class contains static method gc() for the purpose of garbage collection</t>
+  </si>
+  <si>
+    <t>java.lang.Runtime class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. A java application can communicate with JVM by using Runtime object
+2. Runtime class is singlton class
+3. We can create Runtime class by using getRuntime() method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Runtime runtime = Runtime.getRuntime();</t>
+    </r>
+  </si>
+  <si>
+    <t>Once we create Runtime object, we need to call these methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. freeMemory() : returns number of bytes of free memory present in the heap
+2. totalMemory() : returns total number of bytes of heap (i.e Heap size)
+3. gc() : </t>
   </si>
 </sst>
 </file>
@@ -14859,7 +15047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -15074,6 +15262,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -15095,6 +15289,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -15114,6 +15314,253 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5191125</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4105275" y="194033775"/>
+          <a:ext cx="5124450" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4743450</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>88158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4095751" y="196519800"/>
+          <a:ext cx="4686299" cy="2345583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6724650</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>174635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133852" y="199367775"/>
+          <a:ext cx="6629398" cy="2060585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>41167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6029324</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>107194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="201485392"/>
+          <a:ext cx="5972174" cy="2733027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7553325</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124325" y="204311250"/>
+          <a:ext cx="7467600" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15403,10 +15850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15593,15 +16040,15 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>261</v>
+      <c r="A27" s="19" t="s">
+        <v>262</v>
       </c>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>262</v>
+        <v>2010</v>
       </c>
       <c r="B28" s="72"/>
       <c r="C28" s="72"/>
@@ -15610,530 +16057,568 @@
       <c r="A29" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>2010</v>
-      </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
+        <v>261</v>
+      </c>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
+        <v>2039</v>
+      </c>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
+        <v>2040</v>
+      </c>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B33" s="27"/>
+        <v>2041</v>
+      </c>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>531</v>
-      </c>
+        <v>2011</v>
+      </c>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>267</v>
-      </c>
+        <v>1810</v>
+      </c>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
+        <v>1721</v>
+      </c>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
+        <v>2036</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C37" s="74"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>1803</v>
-      </c>
-      <c r="C38" s="49"/>
+        <v>1234</v>
+      </c>
+      <c r="B38" s="27"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>1801</v>
-      </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
+        <v>531</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="C40" s="27"/>
+        <v>267</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C41" s="49"/>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1907</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>1805</v>
-      </c>
-      <c r="C42" s="49"/>
-    </row>
-    <row r="43" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>1906</v>
+      </c>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>260</v>
-      </c>
+        <v>1802</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C43" s="49"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1801</v>
+      </c>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1806</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C46" s="49"/>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1804</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C47" s="49"/>
+    </row>
+    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>1317</v>
+        <v>259</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C49" s="41"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>616</v>
+        <v>669</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>894</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>1180</v>
-      </c>
+        <v>1247</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C54" s="41"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>268</v>
+        <v>616</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>269</v>
+        <v>459</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>270</v>
+        <v>530</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>273</v>
+        <v>885</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>1995</v>
-      </c>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
+        <v>270</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1720</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>373</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>289</v>
-      </c>
+        <v>1995</v>
+      </c>
+      <c r="B70" s="71"/>
+      <c r="C70" s="71"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>291</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>685</v>
+        <v>290</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>713</v>
+        <v>292</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>714</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>1799</v>
+        <v>294</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>875</v>
+        <v>296</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>876</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>877</v>
+        <v>315</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>878</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>881</v>
+        <v>713</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>880</v>
+        <v>714</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>883</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>1548</v>
+        <v>874</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1549</v>
+        <v>875</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>1576</v>
+        <v>876</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>878</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>1686</v>
+        <v>881</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>1681</v>
+        <v>882</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>1682</v>
+        <v>1548</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>1683</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>1684</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>1719</v>
+        <v>1685</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>1721</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>1810</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>1820</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="71"/>
+        <v>1719</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="71"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
         <v>1998</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="71"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="73" t="s">
+      <c r="B103" s="4"/>
+      <c r="C103" s="71"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="75" t="s">
         <v>1814</v>
       </c>
-      <c r="B99" s="74"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="B104" s="76"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
         <v>1815</v>
       </c>
-      <c r="B100" s="50" t="s">
+      <c r="B105" s="50" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
         <v>1818</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A104:B104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B77" r:id="rId2"/>
-    <hyperlink ref="B79" r:id="rId3"/>
-    <hyperlink ref="B80" r:id="rId4"/>
-    <hyperlink ref="B81" r:id="rId5"/>
-    <hyperlink ref="B82" r:id="rId6"/>
-    <hyperlink ref="B83" r:id="rId7"/>
-    <hyperlink ref="B58" r:id="rId8"/>
-    <hyperlink ref="B69" r:id="rId9"/>
-    <hyperlink ref="B54" r:id="rId10"/>
-    <hyperlink ref="B47" r:id="rId11"/>
+    <hyperlink ref="B82" r:id="rId2"/>
+    <hyperlink ref="B84" r:id="rId3"/>
+    <hyperlink ref="B85" r:id="rId4"/>
+    <hyperlink ref="B86" r:id="rId5"/>
+    <hyperlink ref="B87" r:id="rId6"/>
+    <hyperlink ref="B88" r:id="rId7"/>
+    <hyperlink ref="B63" r:id="rId8"/>
+    <hyperlink ref="B74" r:id="rId9"/>
+    <hyperlink ref="B59" r:id="rId10"/>
+    <hyperlink ref="B52" r:id="rId11"/>
     <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B49" r:id="rId13"/>
-    <hyperlink ref="B84" r:id="rId14"/>
-    <hyperlink ref="B78" r:id="rId15"/>
-    <hyperlink ref="B72" r:id="rId16"/>
-    <hyperlink ref="B38" r:id="rId17"/>
-    <hyperlink ref="B42" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
-    <hyperlink ref="B41" r:id="rId19"/>
-    <hyperlink ref="B95" r:id="rId20"/>
-    <hyperlink ref="B96" r:id="rId21"/>
+    <hyperlink ref="B54" r:id="rId13"/>
+    <hyperlink ref="B89" r:id="rId14"/>
+    <hyperlink ref="B83" r:id="rId15"/>
+    <hyperlink ref="B77" r:id="rId16"/>
+    <hyperlink ref="B43" r:id="rId17"/>
+    <hyperlink ref="B47" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
+    <hyperlink ref="B46" r:id="rId19"/>
+    <hyperlink ref="B100" r:id="rId20"/>
+    <hyperlink ref="B101" r:id="rId21"/>
+    <hyperlink ref="B37" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId22"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -16152,10 +16637,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>1770</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
@@ -16318,10 +16803,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>693</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
@@ -16369,10 +16854,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="75" t="s">
         <v>1821</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="76"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
@@ -16463,10 +16948,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="75" t="s">
         <v>1842</v>
       </c>
-      <c r="B29" s="74"/>
+      <c r="B29" s="76"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
@@ -16494,10 +16979,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="74"/>
+      <c r="B36" s="76"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="51" t="s">
@@ -16535,13 +17020,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>1978</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>1979</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -16549,7 +17034,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="65" t="s">
         <v>1980</v>
       </c>
@@ -16566,10 +17051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B355"/>
+  <dimension ref="A1:B446"/>
   <sheetViews>
-    <sheetView topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="B356" sqref="B356"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="B446" sqref="B446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16579,10 +17064,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16609,7 +17094,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="77" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -16617,7 +17102,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="2" t="s">
         <v>235</v>
       </c>
@@ -17439,7 +17924,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="75" t="s">
+      <c r="A109" s="77" t="s">
         <v>1993</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -17447,7 +17932,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A110" s="75"/>
+      <c r="A110" s="77"/>
       <c r="B110" s="2" t="s">
         <v>1762</v>
       </c>
@@ -17461,7 +17946,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="75" t="s">
+      <c r="A112" s="77" t="s">
         <v>1764</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -17469,7 +17954,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="75"/>
+      <c r="A113" s="77"/>
       <c r="B113" s="2" t="s">
         <v>1767</v>
       </c>
@@ -18902,10 +19387,10 @@
       <c r="A293" s="64"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="73" t="s">
+      <c r="A294" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B294" s="74"/>
+      <c r="B294" s="76"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="53" t="s">
@@ -18932,7 +19417,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A298" s="75" t="s">
+      <c r="A298" s="77" t="s">
         <v>1873</v>
       </c>
       <c r="B298" s="53" t="s">
@@ -18940,13 +19425,13 @@
       </c>
     </row>
     <row r="299" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A299" s="75"/>
+      <c r="A299" s="77"/>
       <c r="B299" s="53" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A300" s="75"/>
+      <c r="A300" s="77"/>
       <c r="B300" s="53" t="s">
         <v>1867</v>
       </c>
@@ -18960,7 +19445,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A302" s="75" t="s">
+      <c r="A302" s="77" t="s">
         <v>1871</v>
       </c>
       <c r="B302" s="53" t="s">
@@ -18968,7 +19453,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A303" s="75"/>
+      <c r="A303" s="77"/>
       <c r="B303" s="53" t="s">
         <v>1921</v>
       </c>
@@ -19078,7 +19563,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A317" s="75" t="s">
+      <c r="A317" s="77" t="s">
         <v>1898</v>
       </c>
       <c r="B317" s="55" t="s">
@@ -19086,13 +19571,13 @@
       </c>
     </row>
     <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="75"/>
+      <c r="A318" s="77"/>
       <c r="B318" s="55" t="s">
         <v>1900</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A319" s="75"/>
+      <c r="A319" s="77"/>
       <c r="B319" s="55" t="s">
         <v>1901</v>
       </c>
@@ -19250,10 +19735,10 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="73" t="s">
+      <c r="A340" s="75" t="s">
         <v>1996</v>
       </c>
-      <c r="B340" s="74"/>
+      <c r="B340" s="76"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
@@ -19346,7 +19831,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A353" s="75" t="s">
+      <c r="A353" s="77" t="s">
         <v>2032</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -19354,19 +19839,492 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="75"/>
+      <c r="A354" s="77"/>
       <c r="B354" s="2" t="s">
         <v>2033</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A355" s="75"/>
+      <c r="A355" s="77"/>
       <c r="B355" s="2" t="s">
         <v>2034</v>
       </c>
     </row>
+    <row r="356" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="79" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B357" s="79"/>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="75" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B359" s="76"/>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="82" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A361" s="77"/>
+      <c r="B361" s="2" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A362" s="77"/>
+      <c r="B362" s="2" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="77"/>
+      <c r="B363" s="2" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A364" s="77" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="77"/>
+      <c r="B365" s="2" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="77"/>
+      <c r="B366" s="2" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A367" s="73" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A368" s="73" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="77" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B375" s="83"/>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="77"/>
+      <c r="B376" s="83"/>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="77"/>
+      <c r="B377" s="83"/>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="77"/>
+      <c r="B378" s="83"/>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="77"/>
+      <c r="B379" s="83"/>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="77"/>
+      <c r="B380" s="83"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="77"/>
+      <c r="B381" s="83"/>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="77"/>
+      <c r="B382" s="83"/>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="77"/>
+      <c r="B383" s="83"/>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="77"/>
+      <c r="B384" s="83"/>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="77"/>
+      <c r="B385" s="83"/>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="77"/>
+      <c r="B386" s="83"/>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="77"/>
+      <c r="B387" s="83"/>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="77" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B388" s="83"/>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="77"/>
+      <c r="B389" s="83"/>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="77"/>
+      <c r="B390" s="83"/>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="77"/>
+      <c r="B391" s="83"/>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="77"/>
+      <c r="B392" s="83"/>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="77"/>
+      <c r="B393" s="83"/>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="77"/>
+      <c r="B394" s="83"/>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="77"/>
+      <c r="B395" s="83"/>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="77"/>
+      <c r="B396" s="83"/>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="77"/>
+      <c r="B397" s="83"/>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="77"/>
+      <c r="B398" s="83"/>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="77"/>
+      <c r="B399" s="83"/>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="77"/>
+      <c r="B400" s="83"/>
+    </row>
+    <row r="401" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="77" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B402" s="83"/>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="77"/>
+      <c r="B403" s="83"/>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="77"/>
+      <c r="B404" s="83"/>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="77"/>
+      <c r="B405" s="83"/>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="77"/>
+      <c r="B406" s="83"/>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="77"/>
+      <c r="B407" s="83"/>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="77"/>
+      <c r="B408" s="83"/>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="77"/>
+      <c r="B409" s="83"/>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="77"/>
+      <c r="B410" s="83"/>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="77"/>
+      <c r="B411" s="83"/>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="77"/>
+      <c r="B412" s="83"/>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="77" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B413" s="83"/>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="77"/>
+      <c r="B414" s="83"/>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="77"/>
+      <c r="B415" s="83"/>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="77"/>
+      <c r="B416" s="83"/>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="77"/>
+      <c r="B417" s="83"/>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="77"/>
+      <c r="B418" s="83"/>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="77"/>
+      <c r="B419" s="83"/>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="77"/>
+      <c r="B420" s="83"/>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="77"/>
+      <c r="B421" s="83"/>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="77"/>
+      <c r="B422" s="83"/>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="77"/>
+      <c r="B423" s="83"/>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="77"/>
+      <c r="B424" s="83"/>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="77"/>
+      <c r="B425" s="83"/>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="77"/>
+      <c r="B426" s="83"/>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="77"/>
+      <c r="B427" s="83"/>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="77" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B428" s="83"/>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="77"/>
+      <c r="B429" s="83"/>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="77"/>
+      <c r="B430" s="83"/>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="77"/>
+      <c r="B431" s="83"/>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="77"/>
+      <c r="B432" s="83"/>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="77"/>
+      <c r="B433" s="83"/>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="77"/>
+      <c r="B434" s="83"/>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="77"/>
+      <c r="B435" s="83"/>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="77"/>
+      <c r="B436" s="83"/>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="77"/>
+      <c r="B437" s="83"/>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="77"/>
+      <c r="B438" s="83"/>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="77"/>
+      <c r="B439" s="83"/>
+    </row>
+    <row r="440" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A441" s="77" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A442" s="77"/>
+      <c r="B442" s="2" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A445" s="73" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>2085</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="25">
+    <mergeCell ref="B413:B427"/>
+    <mergeCell ref="A413:A427"/>
+    <mergeCell ref="B428:B439"/>
+    <mergeCell ref="A428:A439"/>
+    <mergeCell ref="A441:A442"/>
+    <mergeCell ref="B388:B400"/>
+    <mergeCell ref="A388:A400"/>
+    <mergeCell ref="B402:B412"/>
+    <mergeCell ref="A402:A412"/>
+    <mergeCell ref="A357:B357"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="A360:A363"/>
+    <mergeCell ref="A364:A366"/>
+    <mergeCell ref="A375:A387"/>
+    <mergeCell ref="B375:B387"/>
     <mergeCell ref="A353:A355"/>
     <mergeCell ref="A340:B340"/>
     <mergeCell ref="A317:A319"/>
@@ -19380,6 +20338,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19387,8 +20346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19398,10 +20357,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>891</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -20024,10 +20983,10 @@
       <c r="B79" s="23"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="75" t="s">
         <v>1209</v>
       </c>
-      <c r="B80" s="74"/>
+      <c r="B80" s="76"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -20235,10 +21194,10 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="73" t="s">
+      <c r="A107" s="75" t="s">
         <v>1215</v>
       </c>
-      <c r="B107" s="74"/>
+      <c r="B107" s="76"/>
     </row>
     <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -20297,10 +21256,10 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="73" t="s">
+      <c r="A115" s="75" t="s">
         <v>1214</v>
       </c>
-      <c r="B115" s="74"/>
+      <c r="B115" s="76"/>
     </row>
     <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -20583,10 +21542,10 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="73" t="s">
+      <c r="A152" s="75" t="s">
         <v>1181</v>
       </c>
-      <c r="B152" s="74"/>
+      <c r="B152" s="76"/>
     </row>
     <row r="153" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -20618,7 +21577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
@@ -20629,10 +21588,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -20931,10 +21890,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="78" t="s">
         <v>432</v>
       </c>
-      <c r="B39" s="76"/>
+      <c r="B39" s="78"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -21129,10 +22088,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="73" t="s">
+      <c r="A65" s="75" t="s">
         <v>496</v>
       </c>
-      <c r="B65" s="74"/>
+      <c r="B65" s="76"/>
     </row>
     <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -21295,10 +22254,10 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="73" t="s">
+      <c r="A87" s="75" t="s">
         <v>1230</v>
       </c>
-      <c r="B87" s="74"/>
+      <c r="B87" s="76"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -21335,10 +22294,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21821,10 +22780,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -22027,7 +22986,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="79" t="s">
         <v>1058</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -22035,13 +22994,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="2" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="79" t="s">
         <v>1059</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -22049,13 +23008,13 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="2" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="77" t="s">
         <v>1060</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -22063,19 +23022,19 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="3" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="2" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="2" t="s">
         <v>1057</v>
       </c>
@@ -22113,10 +23072,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="75" t="s">
         <v>976</v>
       </c>
-      <c r="B39" s="74"/>
+      <c r="B39" s="76"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -22167,10 +23126,10 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="75" t="s">
         <v>989</v>
       </c>
-      <c r="B47" s="74"/>
+      <c r="B47" s="76"/>
     </row>
     <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
@@ -22261,7 +23220,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="79" t="s">
         <v>1012</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -22269,7 +23228,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="77"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="18" t="s">
         <v>1014</v>
       </c>
@@ -22291,7 +23250,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="77" t="s">
+      <c r="A63" s="79" t="s">
         <v>1019</v>
       </c>
       <c r="B63" s="18" t="s">
@@ -22299,7 +23258,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="18" t="s">
         <v>1021</v>
       </c>
@@ -22329,10 +23288,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="75" t="s">
         <v>1028</v>
       </c>
-      <c r="B69" s="74"/>
+      <c r="B69" s="76"/>
     </row>
     <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -22430,10 +23389,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>1213</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -22544,10 +23503,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="75" t="s">
         <v>1663</v>
       </c>
-      <c r="B16" s="74"/>
+      <c r="B16" s="76"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -22678,7 +23637,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="79" t="s">
         <v>1732</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -22686,7 +23645,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="2" t="s">
         <v>1735</v>
       </c>
@@ -22733,10 +23692,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>1446</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -23235,10 +24194,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="75" t="s">
         <v>1447</v>
       </c>
-      <c r="B64" s="74"/>
+      <c r="B64" s="76"/>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
@@ -23662,8 +24621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23673,10 +24632,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>602</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23870,10 +24829,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="75" t="s">
         <v>1249</v>
       </c>
-      <c r="B27" s="74"/>
+      <c r="B27" s="76"/>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -24148,10 +25107,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="75" t="s">
         <v>1538</v>
       </c>
-      <c r="B62" s="74"/>
+      <c r="B62" s="76"/>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -24194,7 +25153,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="79" t="s">
         <v>1550</v>
       </c>
       <c r="B68" s="40" t="s">
@@ -24202,7 +25161,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="77"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="40" t="s">
         <v>1552</v>
       </c>
@@ -24304,10 +25263,10 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="73" t="s">
+      <c r="A84" s="75" t="s">
         <v>873</v>
       </c>
-      <c r="B84" s="74"/>
+      <c r="B84" s="76"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="66" t="s">

--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -14832,6 +14832,14 @@
     <t>java.lang.Runtime class</t>
   </si>
   <si>
+    <t>Once we create Runtime object, we need to call these methods</t>
+  </si>
+  <si>
+    <t>1. freeMemory() : returns number of bytes of free memory present in the heap
+2. totalMemory() : returns total number of bytes of heap (i.e Heap size)
+3. gc() : Requesting JVM to run garbage collector</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. A java application can communicate with JVM by using Runtime object
 2. Runtime class is singlton class
@@ -14842,21 +14850,13 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Runtime runtime = Runtime.getRuntime();</t>
     </r>
-  </si>
-  <si>
-    <t>Once we create Runtime object, we need to call these methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. freeMemory() : returns number of bytes of free memory present in the heap
-2. totalMemory() : returns total number of bytes of heap (i.e Heap size)
-3. gc() : </t>
   </si>
 </sst>
 </file>
@@ -15047,7 +15047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -15268,32 +15268,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16566,10 +16569,10 @@
       <c r="C103" s="71"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="75" t="s">
+      <c r="A104" s="76" t="s">
         <v>1814</v>
       </c>
-      <c r="B104" s="76"/>
+      <c r="B104" s="77"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
@@ -16637,10 +16640,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>1770</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
@@ -16803,10 +16806,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>693</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
@@ -16854,10 +16857,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="76" t="s">
         <v>1821</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="77"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
@@ -16948,10 +16951,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="76" t="s">
         <v>1842</v>
       </c>
-      <c r="B29" s="76"/>
+      <c r="B29" s="77"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
@@ -16979,10 +16982,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="76"/>
+      <c r="B36" s="77"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="51" t="s">
@@ -17020,13 +17023,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>1978</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="83" t="s">
         <v>1979</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -17034,7 +17037,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="65" t="s">
         <v>1980</v>
       </c>
@@ -17054,7 +17057,7 @@
   <dimension ref="A1:B446"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="B446" sqref="B446"/>
+      <selection activeCell="A447" sqref="A447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17064,10 +17067,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -17094,7 +17097,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -17102,7 +17105,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="2" t="s">
         <v>235</v>
       </c>
@@ -17924,7 +17927,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="77" t="s">
+      <c r="A109" s="79" t="s">
         <v>1993</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -17932,7 +17935,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A110" s="77"/>
+      <c r="A110" s="79"/>
       <c r="B110" s="2" t="s">
         <v>1762</v>
       </c>
@@ -17946,7 +17949,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="77" t="s">
+      <c r="A112" s="79" t="s">
         <v>1764</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -17954,7 +17957,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="77"/>
+      <c r="A113" s="79"/>
       <c r="B113" s="2" t="s">
         <v>1767</v>
       </c>
@@ -19387,10 +19390,10 @@
       <c r="A293" s="64"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="75" t="s">
+      <c r="A294" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B294" s="76"/>
+      <c r="B294" s="77"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="53" t="s">
@@ -19417,7 +19420,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A298" s="77" t="s">
+      <c r="A298" s="79" t="s">
         <v>1873</v>
       </c>
       <c r="B298" s="53" t="s">
@@ -19425,13 +19428,13 @@
       </c>
     </row>
     <row r="299" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A299" s="77"/>
+      <c r="A299" s="79"/>
       <c r="B299" s="53" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A300" s="77"/>
+      <c r="A300" s="79"/>
       <c r="B300" s="53" t="s">
         <v>1867</v>
       </c>
@@ -19445,7 +19448,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A302" s="77" t="s">
+      <c r="A302" s="79" t="s">
         <v>1871</v>
       </c>
       <c r="B302" s="53" t="s">
@@ -19453,7 +19456,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A303" s="77"/>
+      <c r="A303" s="79"/>
       <c r="B303" s="53" t="s">
         <v>1921</v>
       </c>
@@ -19563,7 +19566,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A317" s="77" t="s">
+      <c r="A317" s="79" t="s">
         <v>1898</v>
       </c>
       <c r="B317" s="55" t="s">
@@ -19571,13 +19574,13 @@
       </c>
     </row>
     <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="77"/>
+      <c r="A318" s="79"/>
       <c r="B318" s="55" t="s">
         <v>1900</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A319" s="77"/>
+      <c r="A319" s="79"/>
       <c r="B319" s="55" t="s">
         <v>1901</v>
       </c>
@@ -19735,10 +19738,10 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="75" t="s">
+      <c r="A340" s="76" t="s">
         <v>1996</v>
       </c>
-      <c r="B340" s="76"/>
+      <c r="B340" s="77"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
@@ -19831,7 +19834,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A353" s="77" t="s">
+      <c r="A353" s="79" t="s">
         <v>2032</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -19839,13 +19842,13 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="77"/>
+      <c r="A354" s="79"/>
       <c r="B354" s="2" t="s">
         <v>2033</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A355" s="77"/>
+      <c r="A355" s="79"/>
       <c r="B355" s="2" t="s">
         <v>2034</v>
       </c>
@@ -19859,19 +19862,19 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="79" t="s">
+      <c r="A357" s="80" t="s">
         <v>2042</v>
       </c>
-      <c r="B357" s="79"/>
+      <c r="B357" s="80"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="75" t="s">
+      <c r="A359" s="76" t="s">
         <v>2010</v>
       </c>
-      <c r="B359" s="76"/>
+      <c r="B359" s="77"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="82" t="s">
+      <c r="A360" s="81" t="s">
         <v>2043</v>
       </c>
       <c r="B360" s="2" t="s">
@@ -19879,25 +19882,25 @@
       </c>
     </row>
     <row r="361" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A361" s="77"/>
+      <c r="A361" s="79"/>
       <c r="B361" s="2" t="s">
         <v>2044</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A362" s="77"/>
+      <c r="A362" s="79"/>
       <c r="B362" s="2" t="s">
         <v>2050</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="77"/>
+      <c r="A363" s="79"/>
       <c r="B363" s="2" t="s">
         <v>2045</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A364" s="77" t="s">
+      <c r="A364" s="79" t="s">
         <v>2046</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -19905,13 +19908,13 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="77"/>
+      <c r="A365" s="79"/>
       <c r="B365" s="2" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="77"/>
+      <c r="A366" s="79"/>
       <c r="B366" s="2" t="s">
         <v>2049</v>
       </c>
@@ -19981,112 +19984,112 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="77" t="s">
+      <c r="A375" s="79" t="s">
         <v>2067</v>
       </c>
-      <c r="B375" s="83"/>
+      <c r="B375" s="78"/>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="77"/>
-      <c r="B376" s="83"/>
+      <c r="A376" s="79"/>
+      <c r="B376" s="78"/>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="77"/>
-      <c r="B377" s="83"/>
+      <c r="A377" s="79"/>
+      <c r="B377" s="78"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="77"/>
-      <c r="B378" s="83"/>
+      <c r="A378" s="79"/>
+      <c r="B378" s="78"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="77"/>
-      <c r="B379" s="83"/>
+      <c r="A379" s="79"/>
+      <c r="B379" s="78"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="77"/>
-      <c r="B380" s="83"/>
+      <c r="A380" s="79"/>
+      <c r="B380" s="78"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="77"/>
-      <c r="B381" s="83"/>
+      <c r="A381" s="79"/>
+      <c r="B381" s="78"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="77"/>
-      <c r="B382" s="83"/>
+      <c r="A382" s="79"/>
+      <c r="B382" s="78"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="77"/>
-      <c r="B383" s="83"/>
+      <c r="A383" s="79"/>
+      <c r="B383" s="78"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="77"/>
-      <c r="B384" s="83"/>
+      <c r="A384" s="79"/>
+      <c r="B384" s="78"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="77"/>
-      <c r="B385" s="83"/>
+      <c r="A385" s="79"/>
+      <c r="B385" s="78"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="77"/>
-      <c r="B386" s="83"/>
+      <c r="A386" s="79"/>
+      <c r="B386" s="78"/>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="77"/>
-      <c r="B387" s="83"/>
+      <c r="A387" s="79"/>
+      <c r="B387" s="78"/>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="77" t="s">
+      <c r="A388" s="79" t="s">
         <v>2068</v>
       </c>
-      <c r="B388" s="83"/>
+      <c r="B388" s="78"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="77"/>
-      <c r="B389" s="83"/>
+      <c r="A389" s="79"/>
+      <c r="B389" s="78"/>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="77"/>
-      <c r="B390" s="83"/>
+      <c r="A390" s="79"/>
+      <c r="B390" s="78"/>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="77"/>
-      <c r="B391" s="83"/>
+      <c r="A391" s="79"/>
+      <c r="B391" s="78"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="77"/>
-      <c r="B392" s="83"/>
+      <c r="A392" s="79"/>
+      <c r="B392" s="78"/>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="77"/>
-      <c r="B393" s="83"/>
+      <c r="A393" s="79"/>
+      <c r="B393" s="78"/>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="77"/>
-      <c r="B394" s="83"/>
+      <c r="A394" s="79"/>
+      <c r="B394" s="78"/>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="77"/>
-      <c r="B395" s="83"/>
+      <c r="A395" s="79"/>
+      <c r="B395" s="78"/>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="77"/>
-      <c r="B396" s="83"/>
+      <c r="A396" s="79"/>
+      <c r="B396" s="78"/>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="77"/>
-      <c r="B397" s="83"/>
+      <c r="A397" s="79"/>
+      <c r="B397" s="78"/>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="77"/>
-      <c r="B398" s="83"/>
+      <c r="A398" s="79"/>
+      <c r="B398" s="78"/>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="77"/>
-      <c r="B399" s="83"/>
+      <c r="A399" s="79"/>
+      <c r="B399" s="78"/>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="77"/>
-      <c r="B400" s="83"/>
+      <c r="A400" s="79"/>
+      <c r="B400" s="78"/>
     </row>
     <row r="401" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
@@ -20097,162 +20100,162 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="77" t="s">
+      <c r="A402" s="79" t="s">
         <v>2071</v>
       </c>
-      <c r="B402" s="83"/>
+      <c r="B402" s="78"/>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="77"/>
-      <c r="B403" s="83"/>
+      <c r="A403" s="79"/>
+      <c r="B403" s="78"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="77"/>
-      <c r="B404" s="83"/>
+      <c r="A404" s="79"/>
+      <c r="B404" s="78"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="77"/>
-      <c r="B405" s="83"/>
+      <c r="A405" s="79"/>
+      <c r="B405" s="78"/>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="77"/>
-      <c r="B406" s="83"/>
+      <c r="A406" s="79"/>
+      <c r="B406" s="78"/>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="77"/>
-      <c r="B407" s="83"/>
+      <c r="A407" s="79"/>
+      <c r="B407" s="78"/>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="77"/>
-      <c r="B408" s="83"/>
+      <c r="A408" s="79"/>
+      <c r="B408" s="78"/>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="77"/>
-      <c r="B409" s="83"/>
+      <c r="A409" s="79"/>
+      <c r="B409" s="78"/>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="77"/>
-      <c r="B410" s="83"/>
+      <c r="A410" s="79"/>
+      <c r="B410" s="78"/>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="77"/>
-      <c r="B411" s="83"/>
+      <c r="A411" s="79"/>
+      <c r="B411" s="78"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="77"/>
-      <c r="B412" s="83"/>
+      <c r="A412" s="79"/>
+      <c r="B412" s="78"/>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="77" t="s">
+      <c r="A413" s="79" t="s">
         <v>2072</v>
       </c>
-      <c r="B413" s="83"/>
+      <c r="B413" s="78"/>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="77"/>
-      <c r="B414" s="83"/>
+      <c r="A414" s="79"/>
+      <c r="B414" s="78"/>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="77"/>
-      <c r="B415" s="83"/>
+      <c r="A415" s="79"/>
+      <c r="B415" s="78"/>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="77"/>
-      <c r="B416" s="83"/>
+      <c r="A416" s="79"/>
+      <c r="B416" s="78"/>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="77"/>
-      <c r="B417" s="83"/>
+      <c r="A417" s="79"/>
+      <c r="B417" s="78"/>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="77"/>
-      <c r="B418" s="83"/>
+      <c r="A418" s="79"/>
+      <c r="B418" s="78"/>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="77"/>
-      <c r="B419" s="83"/>
+      <c r="A419" s="79"/>
+      <c r="B419" s="78"/>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="77"/>
-      <c r="B420" s="83"/>
+      <c r="A420" s="79"/>
+      <c r="B420" s="78"/>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="77"/>
-      <c r="B421" s="83"/>
+      <c r="A421" s="79"/>
+      <c r="B421" s="78"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="77"/>
-      <c r="B422" s="83"/>
+      <c r="A422" s="79"/>
+      <c r="B422" s="78"/>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="77"/>
-      <c r="B423" s="83"/>
+      <c r="A423" s="79"/>
+      <c r="B423" s="78"/>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="77"/>
-      <c r="B424" s="83"/>
+      <c r="A424" s="79"/>
+      <c r="B424" s="78"/>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="77"/>
-      <c r="B425" s="83"/>
+      <c r="A425" s="79"/>
+      <c r="B425" s="78"/>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="77"/>
-      <c r="B426" s="83"/>
+      <c r="A426" s="79"/>
+      <c r="B426" s="78"/>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="77"/>
-      <c r="B427" s="83"/>
+      <c r="A427" s="79"/>
+      <c r="B427" s="78"/>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="77" t="s">
+      <c r="A428" s="79" t="s">
         <v>2073</v>
       </c>
-      <c r="B428" s="83"/>
+      <c r="B428" s="78"/>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="77"/>
-      <c r="B429" s="83"/>
+      <c r="A429" s="79"/>
+      <c r="B429" s="78"/>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="77"/>
-      <c r="B430" s="83"/>
+      <c r="A430" s="79"/>
+      <c r="B430" s="78"/>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="77"/>
-      <c r="B431" s="83"/>
+      <c r="A431" s="79"/>
+      <c r="B431" s="78"/>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="77"/>
-      <c r="B432" s="83"/>
+      <c r="A432" s="79"/>
+      <c r="B432" s="78"/>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="77"/>
-      <c r="B433" s="83"/>
+      <c r="A433" s="79"/>
+      <c r="B433" s="78"/>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="77"/>
-      <c r="B434" s="83"/>
+      <c r="A434" s="79"/>
+      <c r="B434" s="78"/>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="77"/>
-      <c r="B435" s="83"/>
+      <c r="A435" s="79"/>
+      <c r="B435" s="78"/>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="77"/>
-      <c r="B436" s="83"/>
+      <c r="A436" s="79"/>
+      <c r="B436" s="78"/>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="77"/>
-      <c r="B437" s="83"/>
+      <c r="A437" s="79"/>
+      <c r="B437" s="78"/>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="77"/>
-      <c r="B438" s="83"/>
+      <c r="A438" s="79"/>
+      <c r="B438" s="78"/>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="77"/>
-      <c r="B439" s="83"/>
+      <c r="A439" s="79"/>
+      <c r="B439" s="78"/>
     </row>
     <row r="440" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
@@ -20263,7 +20266,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A441" s="77" t="s">
+      <c r="A441" s="79" t="s">
         <v>2076</v>
       </c>
       <c r="B441" s="2" t="s">
@@ -20271,7 +20274,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A442" s="77"/>
+      <c r="A442" s="79"/>
       <c r="B442" s="2" t="s">
         <v>2078</v>
       </c>
@@ -20297,24 +20300,29 @@
         <v>2082</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A446" s="75" t="s">
         <v>2083</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
+      <c r="B446" s="2" t="s">
         <v>2084</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>2085</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B413:B427"/>
-    <mergeCell ref="A413:A427"/>
-    <mergeCell ref="B428:B439"/>
-    <mergeCell ref="A428:A439"/>
-    <mergeCell ref="A441:A442"/>
+    <mergeCell ref="A353:A355"/>
+    <mergeCell ref="A340:B340"/>
+    <mergeCell ref="A317:A319"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A298:A300"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B388:B400"/>
     <mergeCell ref="A388:A400"/>
     <mergeCell ref="B402:B412"/>
@@ -20325,16 +20333,11 @@
     <mergeCell ref="A364:A366"/>
     <mergeCell ref="A375:A387"/>
     <mergeCell ref="B375:B387"/>
-    <mergeCell ref="A353:A355"/>
-    <mergeCell ref="A340:B340"/>
-    <mergeCell ref="A317:A319"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A298:A300"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B413:B427"/>
+    <mergeCell ref="A413:A427"/>
+    <mergeCell ref="B428:B439"/>
+    <mergeCell ref="A428:A439"/>
+    <mergeCell ref="A441:A442"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -20357,10 +20360,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>891</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -20983,10 +20986,10 @@
       <c r="B79" s="23"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="75" t="s">
+      <c r="A80" s="76" t="s">
         <v>1209</v>
       </c>
-      <c r="B80" s="76"/>
+      <c r="B80" s="77"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -21194,10 +21197,10 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="75" t="s">
+      <c r="A107" s="76" t="s">
         <v>1215</v>
       </c>
-      <c r="B107" s="76"/>
+      <c r="B107" s="77"/>
     </row>
     <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -21256,10 +21259,10 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="75" t="s">
+      <c r="A115" s="76" t="s">
         <v>1214</v>
       </c>
-      <c r="B115" s="76"/>
+      <c r="B115" s="77"/>
     </row>
     <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -21542,10 +21545,10 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="75" t="s">
+      <c r="A152" s="76" t="s">
         <v>1181</v>
       </c>
-      <c r="B152" s="76"/>
+      <c r="B152" s="77"/>
     </row>
     <row r="153" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -21588,10 +21591,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -21890,10 +21893,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="82" t="s">
         <v>432</v>
       </c>
-      <c r="B39" s="78"/>
+      <c r="B39" s="82"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -22088,10 +22091,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="75" t="s">
+      <c r="A65" s="76" t="s">
         <v>496</v>
       </c>
-      <c r="B65" s="76"/>
+      <c r="B65" s="77"/>
     </row>
     <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -22254,10 +22257,10 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="75" t="s">
+      <c r="A87" s="76" t="s">
         <v>1230</v>
       </c>
-      <c r="B87" s="76"/>
+      <c r="B87" s="77"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -22294,10 +22297,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22780,10 +22783,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -22986,7 +22989,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="80" t="s">
         <v>1058</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -22994,13 +22997,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="2" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="80" t="s">
         <v>1059</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -23008,13 +23011,13 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="2" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="79" t="s">
         <v>1060</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -23022,19 +23025,19 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="3" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="2" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="2" t="s">
         <v>1057</v>
       </c>
@@ -23072,10 +23075,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="76" t="s">
         <v>976</v>
       </c>
-      <c r="B39" s="76"/>
+      <c r="B39" s="77"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -23126,10 +23129,10 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="76" t="s">
         <v>989</v>
       </c>
-      <c r="B47" s="76"/>
+      <c r="B47" s="77"/>
     </row>
     <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
@@ -23220,7 +23223,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="79" t="s">
+      <c r="A59" s="80" t="s">
         <v>1012</v>
       </c>
       <c r="B59" s="18" t="s">
@@ -23228,7 +23231,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="79"/>
+      <c r="A60" s="80"/>
       <c r="B60" s="18" t="s">
         <v>1014</v>
       </c>
@@ -23250,7 +23253,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="79" t="s">
+      <c r="A63" s="80" t="s">
         <v>1019</v>
       </c>
       <c r="B63" s="18" t="s">
@@ -23258,7 +23261,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="79"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="18" t="s">
         <v>1021</v>
       </c>
@@ -23288,10 +23291,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="75" t="s">
+      <c r="A69" s="76" t="s">
         <v>1028</v>
       </c>
-      <c r="B69" s="76"/>
+      <c r="B69" s="77"/>
     </row>
     <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -23389,10 +23392,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>1213</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -23503,10 +23506,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="76" t="s">
         <v>1663</v>
       </c>
-      <c r="B16" s="76"/>
+      <c r="B16" s="77"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -23637,7 +23640,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="80" t="s">
         <v>1732</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -23645,7 +23648,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="2" t="s">
         <v>1735</v>
       </c>
@@ -23692,10 +23695,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>1446</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -24194,10 +24197,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="76" t="s">
         <v>1447</v>
       </c>
-      <c r="B64" s="76"/>
+      <c r="B64" s="77"/>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
@@ -24632,10 +24635,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>602</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -24829,10 +24832,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="76" t="s">
         <v>1249</v>
       </c>
-      <c r="B27" s="76"/>
+      <c r="B27" s="77"/>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -25107,10 +25110,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="76" t="s">
         <v>1538</v>
       </c>
-      <c r="B62" s="76"/>
+      <c r="B62" s="77"/>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -25153,7 +25156,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="79" t="s">
+      <c r="A68" s="80" t="s">
         <v>1550</v>
       </c>
       <c r="B68" s="40" t="s">
@@ -25161,7 +25164,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="79"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="40" t="s">
         <v>1552</v>
       </c>
@@ -25263,10 +25266,10 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="75" t="s">
+      <c r="A84" s="76" t="s">
         <v>873</v>
       </c>
-      <c r="B84" s="76"/>
+      <c r="B84" s="77"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="66" t="s">

--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="2086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="2085">
   <si>
     <t>JDK</t>
   </si>
@@ -5311,9 +5311,6 @@
   </si>
   <si>
     <t>Enterprise Beans Definitions</t>
-  </si>
-  <si>
-    <t>RESTful Web Services</t>
   </si>
   <si>
     <t>JPA - Java Persistance API</t>
@@ -14597,9 +14594,6 @@
     <t>Garbage Collection</t>
   </si>
   <si>
-    <t>SOAP Web Services</t>
-  </si>
-  <si>
     <t>Class loader sub system follows which algorithm</t>
   </si>
   <si>
@@ -14857,6 +14851,9 @@
       </rPr>
       <t>Runtime runtime = Runtime.getRuntime();</t>
     </r>
+  </si>
+  <si>
+    <t>Example of using Runtime object for garbage collection</t>
   </si>
 </sst>
 </file>
@@ -15563,6 +15560,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5267324</xdr:colOff>
+      <xdr:row>457</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="209521424"/>
+          <a:ext cx="5143499" cy="2162176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15853,10 +15894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15958,7 +15999,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -15981,10 +16022,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -15997,12 +16038,12 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -16015,7 +16056,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B22" s="41"/>
     </row>
@@ -16042,16 +16083,18 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="B27" s="72"/>
+      <c r="B27" s="72" t="s">
+        <v>263</v>
+      </c>
       <c r="C27" s="72"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B28" s="72"/>
       <c r="C28" s="72"/>
@@ -16067,63 +16110,65 @@
       <c r="A30" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B30" s="74"/>
+      <c r="B30" s="1" t="s">
+        <v>601</v>
+      </c>
       <c r="C30" s="74"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="B31" s="74"/>
       <c r="C31" s="74"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="B32" s="74"/>
       <c r="C32" s="74"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B33" s="72"/>
       <c r="C33" s="72"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>2011</v>
+        <v>1800</v>
       </c>
       <c r="B34" s="72"/>
       <c r="C34" s="72"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B35" s="72"/>
       <c r="C35" s="72"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B36" s="72"/>
       <c r="C36" s="72"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="C37" s="74"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B38" s="27"/>
     </row>
@@ -16139,485 +16184,456 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>1802</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>1803</v>
       </c>
       <c r="C43" s="49"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>1801</v>
-      </c>
-      <c r="B44" s="49"/>
+        <v>1805</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>1806</v>
+      </c>
       <c r="C44" s="49"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="C45" s="27"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1803</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C45" s="49"/>
+    </row>
+    <row r="46" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C46" s="49"/>
+        <v>259</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>1805</v>
-      </c>
-      <c r="C47" s="49"/>
-    </row>
-    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>260</v>
+        <v>669</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1246</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C50" s="41"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>264</v>
+        <v>278</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>1317</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C54" s="41"/>
+        <v>893</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>1246</v>
+        <v>459</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>616</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>894</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>459</v>
+        <v>885</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1180</v>
+        <v>884</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>884</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>233</v>
-      </c>
+        <v>1994</v>
+      </c>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>271</v>
+        <v>281</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>273</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>277</v>
+        <v>284</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>1995</v>
-      </c>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
+        <v>286</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1720</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>373</v>
+        <v>290</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>287</v>
+        <v>294</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>293</v>
+        <v>685</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>295</v>
+        <v>713</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>297</v>
+        <v>873</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>316</v>
+        <v>874</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>685</v>
+        <v>876</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>713</v>
+        <v>878</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>1799</v>
+        <v>881</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>876</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>877</v>
+        <v>1547</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>878</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>881</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>880</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>882</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>883</v>
+        <v>1684</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1685</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>1549</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>1576</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>1668</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>1681</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>1682</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>1683</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1810</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>1719</v>
+        <v>1818</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>1819</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>1721</v>
-      </c>
+        <v>1996</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="71"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>1810</v>
-      </c>
+        <v>1997</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="71"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>1820</v>
+      <c r="A100" s="76" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B100" s="77"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B101" s="50" t="s">
+        <v>1815</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="71"/>
+      <c r="A102" s="8" t="s">
+        <v>1816</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>1998</v>
-      </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="71"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="76" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B104" s="77"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B105" s="50" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="A103" s="8" t="s">
         <v>1817</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>1818</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A100:B100"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B82" r:id="rId2"/>
-    <hyperlink ref="B84" r:id="rId3"/>
-    <hyperlink ref="B85" r:id="rId4"/>
-    <hyperlink ref="B86" r:id="rId5"/>
-    <hyperlink ref="B87" r:id="rId6"/>
-    <hyperlink ref="B88" r:id="rId7"/>
-    <hyperlink ref="B63" r:id="rId8"/>
-    <hyperlink ref="B74" r:id="rId9"/>
-    <hyperlink ref="B59" r:id="rId10"/>
-    <hyperlink ref="B52" r:id="rId11"/>
+    <hyperlink ref="B78" r:id="rId2"/>
+    <hyperlink ref="B80" r:id="rId3"/>
+    <hyperlink ref="B81" r:id="rId4"/>
+    <hyperlink ref="B82" r:id="rId5"/>
+    <hyperlink ref="B83" r:id="rId6"/>
+    <hyperlink ref="B84" r:id="rId7"/>
+    <hyperlink ref="B59" r:id="rId8"/>
+    <hyperlink ref="B70" r:id="rId9"/>
+    <hyperlink ref="B55" r:id="rId10"/>
+    <hyperlink ref="B48" r:id="rId11"/>
     <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B54" r:id="rId13"/>
-    <hyperlink ref="B89" r:id="rId14"/>
-    <hyperlink ref="B83" r:id="rId15"/>
-    <hyperlink ref="B77" r:id="rId16"/>
+    <hyperlink ref="B50" r:id="rId13"/>
+    <hyperlink ref="B85" r:id="rId14"/>
+    <hyperlink ref="B79" r:id="rId15"/>
+    <hyperlink ref="B73" r:id="rId16"/>
     <hyperlink ref="B43" r:id="rId17"/>
-    <hyperlink ref="B47" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
-    <hyperlink ref="B46" r:id="rId19"/>
-    <hyperlink ref="B100" r:id="rId20"/>
-    <hyperlink ref="B101" r:id="rId21"/>
+    <hyperlink ref="B45" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
+    <hyperlink ref="B44" r:id="rId19"/>
+    <hyperlink ref="B96" r:id="rId20"/>
+    <hyperlink ref="B97" r:id="rId21"/>
     <hyperlink ref="B37" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16641,144 +16657,144 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>1772</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>1774</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>1777</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>1779</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>1781</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>1783</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>1785</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>1787</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>1789</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B13" s="46" t="s">
         <v>1791</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B14" s="46" t="s">
         <v>1793</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>1795</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B16" s="47" t="s">
         <v>1797</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B17" s="46" t="s">
         <v>1936</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>1937</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B18" s="46" t="s">
         <v>1974</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>1975</v>
       </c>
     </row>
   </sheetData>
@@ -16858,127 +16874,127 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B11" s="77"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="76" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B29" s="77"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -16989,7 +17005,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="51" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
   </sheetData>
@@ -17024,22 +17040,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="84"/>
       <c r="B3" s="65" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
   </sheetData>
@@ -17054,10 +17070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B446"/>
+  <dimension ref="A1:B458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447"/>
+    <sheetView topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:A458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17227,7 +17243,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -17315,7 +17331,7 @@
         <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -17355,7 +17371,7 @@
         <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17419,7 +17435,7 @@
         <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17432,7 +17448,7 @@
     </row>
     <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>845</v>
@@ -17451,7 +17467,7 @@
         <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -17483,7 +17499,7 @@
         <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -17539,7 +17555,7 @@
         <v>163</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -17555,7 +17571,7 @@
         <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17611,7 +17627,7 @@
         <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17651,7 +17667,7 @@
         <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -17667,7 +17683,7 @@
         <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -17675,7 +17691,7 @@
         <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -17691,7 +17707,7 @@
         <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -17723,7 +17739,7 @@
         <v>116</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -17744,7 +17760,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>121</v>
@@ -17763,7 +17779,7 @@
         <v>204</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17771,7 +17787,7 @@
         <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -17779,7 +17795,7 @@
         <v>849</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -17792,95 +17808,95 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>1740</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="57" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>1742</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="57" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>1744</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="54" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>1747</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="54" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>1749</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A98" s="47" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="54" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="54" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="69" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="54" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>362</v>
@@ -17888,10 +17904,10 @@
     </row>
     <row r="104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="54" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17899,83 +17915,83 @@
         <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>1757</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>1760</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="79" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="79"/>
       <c r="B110" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="57" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" s="79" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>1764</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="79"/>
       <c r="B113" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -18015,7 +18031,7 @@
         <v>129</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -18143,7 +18159,7 @@
         <v>150</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18223,7 +18239,7 @@
         <v>207</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -18247,7 +18263,7 @@
         <v>709</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -18327,7 +18343,7 @@
         <v>188</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -18340,7 +18356,7 @@
     </row>
     <row r="161" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>722</v>
@@ -18351,7 +18367,7 @@
         <v>185</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18412,10 +18428,10 @@
     </row>
     <row r="170" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -18428,7 +18444,7 @@
     </row>
     <row r="172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>725</v>
@@ -18436,7 +18452,7 @@
     </row>
     <row r="173" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A173" s="29" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>199</v>
@@ -18471,7 +18487,7 @@
         <v>213</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -18479,7 +18495,7 @@
         <v>214</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18503,7 +18519,7 @@
         <v>222</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18540,7 +18556,7 @@
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>227</v>
@@ -18548,7 +18564,7 @@
     </row>
     <row r="187" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>229</v>
@@ -18569,10 +18585,10 @@
     </row>
     <row r="190" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>1088</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18580,7 +18596,7 @@
         <v>200</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -18668,7 +18684,7 @@
         <v>389</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -18764,7 +18780,7 @@
         <v>324</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -18780,7 +18796,7 @@
         <v>331</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -18788,7 +18804,7 @@
         <v>332</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -18801,10 +18817,10 @@
     </row>
     <row r="219" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -18817,10 +18833,10 @@
     </row>
     <row r="221" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18828,7 +18844,7 @@
         <v>336</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -18852,7 +18868,7 @@
         <v>340</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -18860,7 +18876,7 @@
         <v>860</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -18868,7 +18884,7 @@
         <v>341</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -18884,7 +18900,7 @@
         <v>343</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -18940,7 +18956,7 @@
         <v>367</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -18956,7 +18972,7 @@
         <v>331</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -18964,7 +18980,7 @@
         <v>374</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -18972,12 +18988,12 @@
         <v>309</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>375</v>
@@ -19004,7 +19020,7 @@
         <v>379</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -19012,7 +19028,7 @@
         <v>380</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -19036,7 +19052,7 @@
         <v>383</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -19156,7 +19172,7 @@
         <v>760</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -19172,7 +19188,7 @@
         <v>763</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19193,7 +19209,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>768</v>
@@ -19236,7 +19252,7 @@
         <v>777</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19345,42 +19361,42 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>1924</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>1925</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="60" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>1942</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>1943</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="63" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>1972</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A290" s="64" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>1976</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="63" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>1982</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -19397,485 +19413,485 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="53" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B295" s="53" t="s">
         <v>1861</v>
-      </c>
-      <c r="B295" s="53" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="53" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B296" s="53" t="s">
         <v>1863</v>
-      </c>
-      <c r="B296" s="53" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A297" s="53" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B297" s="53" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A298" s="79" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B298" s="53" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="79"/>
       <c r="B299" s="53" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="79"/>
       <c r="B300" s="53" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="53" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B301" s="53" t="s">
         <v>1869</v>
-      </c>
-      <c r="B301" s="53" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A302" s="79" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B302" s="53" t="s">
         <v>1871</v>
-      </c>
-      <c r="B302" s="53" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A303" s="79"/>
       <c r="B303" s="53" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="53" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B304" s="53" t="s">
         <v>1874</v>
-      </c>
-      <c r="B304" s="53" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A305" s="57" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B305" s="53" t="s">
         <v>1876</v>
-      </c>
-      <c r="B305" s="53" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A306" s="57" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B306" s="53" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="57" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B307" s="53" t="s">
         <v>1879</v>
-      </c>
-      <c r="B307" s="53" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="58" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B308" s="53" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A309" s="57" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B309" s="53" t="s">
         <v>1882</v>
-      </c>
-      <c r="B309" s="53" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="53" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B310" s="53" t="s">
         <v>1884</v>
-      </c>
-      <c r="B310" s="53" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="53" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B311" s="53" t="s">
         <v>1886</v>
-      </c>
-      <c r="B311" s="53" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="53" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B312" s="53" t="s">
         <v>1888</v>
-      </c>
-      <c r="B312" s="53" t="s">
-        <v>1889</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="57" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B313" s="53" t="s">
         <v>1890</v>
-      </c>
-      <c r="B313" s="53" t="s">
-        <v>1891</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="57" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B314" s="53" t="s">
         <v>1892</v>
-      </c>
-      <c r="B314" s="53" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="57" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B315" s="55" t="s">
         <v>1896</v>
-      </c>
-      <c r="B315" s="55" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="57" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B316" s="55" t="s">
         <v>1894</v>
-      </c>
-      <c r="B316" s="55" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A317" s="79" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B317" s="55" t="s">
         <v>1898</v>
-      </c>
-      <c r="B317" s="55" t="s">
-        <v>1899</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="79"/>
       <c r="B318" s="55" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="79"/>
       <c r="B319" s="55" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="55" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B320" s="55" t="s">
         <v>1902</v>
-      </c>
-      <c r="B320" s="55" t="s">
-        <v>1903</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="55" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B321" s="55" t="s">
         <v>1945</v>
-      </c>
-      <c r="B321" s="55" t="s">
-        <v>1946</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="55" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B322" s="55" t="s">
         <v>1947</v>
-      </c>
-      <c r="B322" s="55" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="55" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B323" s="55" t="s">
         <v>1949</v>
-      </c>
-      <c r="B323" s="55" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="55" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B324" s="55" t="s">
         <v>1951</v>
-      </c>
-      <c r="B324" s="55" t="s">
-        <v>1952</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="55" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B325" s="55" t="s">
         <v>1953</v>
-      </c>
-      <c r="B325" s="55" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="55" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B326" s="55" t="s">
         <v>1955</v>
-      </c>
-      <c r="B326" s="55" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="55" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B327" s="55" t="s">
         <v>1957</v>
-      </c>
-      <c r="B327" s="55" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="55" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B328" s="55" t="s">
         <v>1959</v>
-      </c>
-      <c r="B328" s="55" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="55" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B329" s="55" t="s">
         <v>1961</v>
-      </c>
-      <c r="B329" s="55" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="53" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B330" s="53" t="s">
         <v>1963</v>
-      </c>
-      <c r="B330" s="53" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>1845</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>1847</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>1851</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B335" s="2" t="s">
         <v>1853</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>1855</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>1857</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>1859</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="76" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B340" s="77"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B349" s="2" t="s">
         <v>1999</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="72" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="79" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="79"/>
       <c r="B354" s="2" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A355" s="79"/>
       <c r="B355" s="2" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="80" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="B357" s="80"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="76" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B359" s="77"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="81" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>505</v>
@@ -19884,108 +19900,108 @@
     <row r="361" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A361" s="79"/>
       <c r="B361" s="2" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A362" s="79"/>
       <c r="B362" s="2" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="79"/>
       <c r="B363" s="2" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A364" s="79" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="79"/>
       <c r="B365" s="2" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="79"/>
       <c r="B366" s="2" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="73" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="73" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="79" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="B375" s="78"/>
     </row>
@@ -20039,7 +20055,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="79" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="B388" s="78"/>
     </row>
@@ -20093,15 +20109,15 @@
     </row>
     <row r="401" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="79" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="B402" s="78"/>
     </row>
@@ -20147,7 +20163,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="79" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="B413" s="78"/>
     </row>
@@ -20209,7 +20225,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="79" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B428" s="78"/>
     </row>
@@ -20259,60 +20275,110 @@
     </row>
     <row r="440" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="79" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="79"/>
       <c r="B442" s="2" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A445" s="73" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A446" s="75" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="79" t="s">
         <v>2084</v>
       </c>
+      <c r="B447" s="78"/>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="79"/>
+      <c r="B448" s="78"/>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="79"/>
+      <c r="B449" s="78"/>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="79"/>
+      <c r="B450" s="78"/>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="79"/>
+      <c r="B451" s="78"/>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="79"/>
+      <c r="B452" s="78"/>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="79"/>
+      <c r="B453" s="78"/>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="79"/>
+      <c r="B454" s="78"/>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="79"/>
+      <c r="B455" s="78"/>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="79"/>
+      <c r="B456" s="78"/>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="79"/>
+      <c r="B457" s="78"/>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="79"/>
+      <c r="B458" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
     <mergeCell ref="A353:A355"/>
     <mergeCell ref="A340:B340"/>
     <mergeCell ref="A317:A319"/>
@@ -20333,6 +20399,8 @@
     <mergeCell ref="A364:A366"/>
     <mergeCell ref="A375:A387"/>
     <mergeCell ref="B375:B387"/>
+    <mergeCell ref="B447:B458"/>
+    <mergeCell ref="A447:A458"/>
     <mergeCell ref="B413:B427"/>
     <mergeCell ref="A413:A427"/>
     <mergeCell ref="B428:B439"/>
@@ -20367,122 +20435,122 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -20519,58 +20587,58 @@
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
+        <v>919</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20583,10 +20651,10 @@
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -20594,39 +20662,39 @@
         <v>543</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>926</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>930</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -20634,20 +20702,20 @@
         <v>542</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>1193</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>822</v>
@@ -20658,7 +20726,7 @@
         <v>543</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20666,7 +20734,7 @@
         <v>546</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20690,7 +20758,7 @@
         <v>547</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20722,7 +20790,7 @@
         <v>550</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20735,7 +20803,7 @@
     </row>
     <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>732</v>
@@ -20746,7 +20814,7 @@
         <v>558</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -20754,7 +20822,7 @@
         <v>557</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -20770,7 +20838,7 @@
         <v>552</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20778,7 +20846,7 @@
         <v>623</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -20794,7 +20862,7 @@
         <v>553</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20863,7 +20931,7 @@
     </row>
     <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>634</v>
@@ -20874,7 +20942,7 @@
         <v>635</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -20887,10 +20955,10 @@
     </row>
     <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -20898,87 +20966,87 @@
         <v>553</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>1112</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>1203</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>1114</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -20987,7 +21055,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="76" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B80" s="77"/>
     </row>
@@ -21020,7 +21088,7 @@
         <v>798</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21094,10 +21162,10 @@
     </row>
     <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -21105,7 +21173,7 @@
         <v>794</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -21185,7 +21253,7 @@
         <v>889</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21198,7 +21266,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="76" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B107" s="77"/>
     </row>
@@ -21223,205 +21291,205 @@
         <v>868</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B113" s="16" t="s">
         <v>1070</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="76" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B115" s="77"/>
     </row>
     <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>1134</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="26" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21429,133 +21497,133 @@
         <v>395</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>1161</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>1164</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>1166</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>1170</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>1172</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>1176</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="76" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B152" s="77"/>
     </row>
     <row r="153" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>1182</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>1183</v>
       </c>
     </row>
   </sheetData>
@@ -21598,10 +21666,10 @@
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>1444</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -21617,7 +21685,7 @@
         <v>392</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21641,7 +21709,7 @@
         <v>587</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -21657,7 +21725,7 @@
         <v>397</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -21681,7 +21749,7 @@
         <v>458</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21713,7 +21781,7 @@
         <v>409</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21769,7 +21837,7 @@
         <v>410</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21777,12 +21845,12 @@
         <v>411</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>412</v>
@@ -21841,7 +21909,7 @@
         <v>731</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -21870,15 +21938,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>1145</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>447</v>
@@ -21886,10 +21954,10 @@
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>1148</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -21900,7 +21968,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>415</v>
@@ -21919,7 +21987,7 @@
         <v>418</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -21948,7 +22016,7 @@
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>483</v>
@@ -22098,10 +22166,10 @@
     </row>
     <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>969</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -22109,7 +22177,7 @@
         <v>397</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -22149,7 +22217,7 @@
         <v>503</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -22157,7 +22225,7 @@
         <v>504</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -22258,16 +22326,16 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="76" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B87" s="77"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>1231</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>1232</v>
       </c>
     </row>
   </sheetData>
@@ -22323,7 +22391,7 @@
         <v>563</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22339,7 +22407,7 @@
         <v>566</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -22347,7 +22415,7 @@
         <v>567</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -22355,47 +22423,47 @@
         <v>568</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>1586</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>1588</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>1590</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>1593</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -22411,7 +22479,7 @@
         <v>571</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -22419,7 +22487,7 @@
         <v>572</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -22472,291 +22540,291 @@
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>1596</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>1599</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>1601</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>1603</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>1605</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>1607</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>1609</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>1611</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>1613</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>1615</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>1619</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>1621</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>1623</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>1625</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>1627</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>1629</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>1631</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>1633</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>1635</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>1638</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>1644</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>1642</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>1646</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>1648</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>1651</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>1653</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>1660</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
   </sheetData>
@@ -22790,18 +22858,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>1066</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -22809,7 +22877,7 @@
         <v>395</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22817,23 +22885,23 @@
         <v>266</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -22841,143 +22909,143 @@
         <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>948</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>952</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>974</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>1938</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1939</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>1940</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>1045</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -22985,379 +23053,379 @@
         <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="80" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="80" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="80"/>
       <c r="B30" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="79" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="79"/>
       <c r="B32" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="79"/>
       <c r="B33" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="79"/>
       <c r="B34" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>1062</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="76" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B39" s="77"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>977</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>979</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>981</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>983</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>985</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>987</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="76" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B47" s="77"/>
     </row>
     <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
+        <v>989</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>990</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
+        <v>991</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="56" t="s">
+        <v>993</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>996</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>998</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>1000</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>1004</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>1008</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="80" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>1012</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="80"/>
       <c r="B60" s="18" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>1015</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="80" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>1019</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="80"/>
       <c r="B64" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="76" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B69" s="77"/>
     </row>
     <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>1031</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>1033</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>1035</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>1037</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>1039</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>1041</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>1043</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>1044</v>
       </c>
     </row>
   </sheetData>
@@ -23393,16 +23461,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B2" t="s">
         <v>1666</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -23418,7 +23486,7 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -23438,7 +23506,7 @@
         <v>869</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -23462,7 +23530,7 @@
         <v>712</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -23499,174 +23567,174 @@
     </row>
     <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>1674</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B16" s="77"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B17" s="42" t="s">
         <v>1664</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B18" t="s">
         <v>1666</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B19" s="42" t="s">
         <v>1669</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>1672</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>1676</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>1679</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>1717</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>1340</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>1722</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>1724</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>1726</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>1730</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="80" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="80"/>
       <c r="B34" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B35" s="43" t="s">
         <v>1736</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>1738</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1739</v>
       </c>
     </row>
   </sheetData>
@@ -23696,918 +23764,918 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1338</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1340</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1343</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>1346</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>1348</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>1364</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>1369</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>1371</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>1373</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>1375</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>1377</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>1379</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>1383</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>1388</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>1390</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>1393</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>1395</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>1403</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>1401</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>1406</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>1408</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>1412</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>1415</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>1418</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>1420</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>1423</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>1425</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>2006</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>2007</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>1427</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>1430</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>1432</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>1435</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>1438</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="76" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B64" s="77"/>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>1448</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B67" t="s">
         <v>1450</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>1452</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>1454</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>1456</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>1460</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>1465</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A74" s="44" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>1463</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>1467</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="39" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>1471</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="39" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>1458</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>1481</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>1473</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>1475</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>1477</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>1483</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="38" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>1494</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="44" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>1496</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>1498</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="44" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>1500</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="38" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>1502</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>1504</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="44" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>1506</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="38" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>1508</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="44" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>1512</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="44" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>1514</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>1516</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="38" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>1518</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="38" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>1520</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>1522</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="38" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>1525</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="44" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>1527</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="38" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>1530</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>1532</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="38" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>1534</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>1536</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>1537</v>
       </c>
     </row>
   </sheetData>
@@ -24772,7 +24840,7 @@
         <v>656</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24833,436 +24901,436 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B27" s="77"/>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>1250</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B30" s="34" t="s">
         <v>1255</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1253</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1257</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1259</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1262</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>1264</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>1266</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>1268</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>1270</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>1272</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>1274</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>1278</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>1280</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1284</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>1286</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>1290</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>1293</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>1296</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>1298</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>1300</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>1303</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>1305</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>1309</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>1311</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>1313</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="76" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B62" s="77"/>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>1540</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>1542</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>1544</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>1546</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A68" s="80" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B68" s="40" t="s">
         <v>1550</v>
-      </c>
-      <c r="B68" s="40" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A69" s="80"/>
       <c r="B69" s="40" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>1553</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>1555</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>1557</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>1559</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>1561</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>1563</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>1565</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>1567</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>1570</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>1572</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -25273,10 +25341,10 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="66" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>1984</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>1985</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="10515" windowHeight="4680" tabRatio="764" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="2085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="2094">
   <si>
     <t>JDK</t>
   </si>
@@ -14854,6 +14854,34 @@
   </si>
   <si>
     <t>Example of using Runtime object for garbage collection</t>
+  </si>
+  <si>
+    <t>System.gc() vs Runtime.getRuntime.gc()</t>
+  </si>
+  <si>
+    <t>Just before destroying an object garbage collector calls finalize() method to perform cleanup activities. Once finalize() completes automatically GC destroys that objet.
+java.lang.Object.protected void finalize() throws Throwable { }</t>
+  </si>
+  <si>
+    <t>We can override finalize() method in our class to perform clean up activities</t>
+  </si>
+  <si>
+    <t>Example 1</t>
+  </si>
+  <si>
+    <t>Can we call finalize() method explicitely? Yes</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>What happens if exception occurs while executing finalize method</t>
+  </si>
+  <si>
+    <t>In programmer calls finalize method explicitely and while executing finaliza() if any exception occurs and which is uncaught then program will be terminated abnormally by raising that exception</t>
+  </si>
+  <si>
+    <t>If garbage collector calls finalize() method and while executing finalize() method, if any exception occurs and which is uncaught then JVM ignores that exception and rest of the program will be executed normally</t>
   </si>
 </sst>
 </file>
@@ -15274,11 +15302,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -15604,6 +15632,226 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>458</xdr:row>
+      <xdr:rowOff>35694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6554485</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>133903</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="211805019"/>
+          <a:ext cx="6421135" cy="2765209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>24826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5792532</xdr:colOff>
+      <xdr:row>487</xdr:row>
+      <xdr:rowOff>181554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="215413651"/>
+          <a:ext cx="5621082" cy="2442728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>103726</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5411507</xdr:colOff>
+      <xdr:row>500</xdr:row>
+      <xdr:rowOff>95818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4142326" y="217941525"/>
+          <a:ext cx="5307781" cy="2305618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>501</xdr:row>
+      <xdr:rowOff>61284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6602225</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>86059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="220403109"/>
+          <a:ext cx="6497450" cy="1548775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>512</xdr:row>
+      <xdr:rowOff>57131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4897234</xdr:colOff>
+      <xdr:row>523</xdr:row>
+      <xdr:rowOff>133974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124325" y="222875456"/>
+          <a:ext cx="4811509" cy="2172343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15896,7 +16144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -17070,10 +17318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B458"/>
+  <dimension ref="A1:B524"/>
   <sheetViews>
-    <sheetView topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:A458"/>
+    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="A513" sqref="A513:A524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17113,7 +17361,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -17121,7 +17369,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="2" t="s">
         <v>235</v>
       </c>
@@ -17943,7 +18191,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="79" t="s">
+      <c r="A109" s="78" t="s">
         <v>1992</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -17951,7 +18199,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A110" s="79"/>
+      <c r="A110" s="78"/>
       <c r="B110" s="2" t="s">
         <v>1761</v>
       </c>
@@ -17965,7 +18213,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="79" t="s">
+      <c r="A112" s="78" t="s">
         <v>1763</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -17973,7 +18221,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="79"/>
+      <c r="A113" s="78"/>
       <c r="B113" s="2" t="s">
         <v>1766</v>
       </c>
@@ -19436,7 +19684,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A298" s="79" t="s">
+      <c r="A298" s="78" t="s">
         <v>1872</v>
       </c>
       <c r="B298" s="53" t="s">
@@ -19444,13 +19692,13 @@
       </c>
     </row>
     <row r="299" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A299" s="79"/>
+      <c r="A299" s="78"/>
       <c r="B299" s="53" t="s">
         <v>1865</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A300" s="79"/>
+      <c r="A300" s="78"/>
       <c r="B300" s="53" t="s">
         <v>1866</v>
       </c>
@@ -19464,7 +19712,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A302" s="79" t="s">
+      <c r="A302" s="78" t="s">
         <v>1870</v>
       </c>
       <c r="B302" s="53" t="s">
@@ -19472,7 +19720,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A303" s="79"/>
+      <c r="A303" s="78"/>
       <c r="B303" s="53" t="s">
         <v>1920</v>
       </c>
@@ -19582,7 +19830,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A317" s="79" t="s">
+      <c r="A317" s="78" t="s">
         <v>1897</v>
       </c>
       <c r="B317" s="55" t="s">
@@ -19590,13 +19838,13 @@
       </c>
     </row>
     <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="79"/>
+      <c r="A318" s="78"/>
       <c r="B318" s="55" t="s">
         <v>1899</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A319" s="79"/>
+      <c r="A319" s="78"/>
       <c r="B319" s="55" t="s">
         <v>1900</v>
       </c>
@@ -19850,7 +20098,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A353" s="79" t="s">
+      <c r="A353" s="78" t="s">
         <v>2030</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -19858,13 +20106,13 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="79"/>
+      <c r="A354" s="78"/>
       <c r="B354" s="2" t="s">
         <v>2031</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A355" s="79"/>
+      <c r="A355" s="78"/>
       <c r="B355" s="2" t="s">
         <v>2032</v>
       </c>
@@ -19898,25 +20146,25 @@
       </c>
     </row>
     <row r="361" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A361" s="79"/>
+      <c r="A361" s="78"/>
       <c r="B361" s="2" t="s">
         <v>2042</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A362" s="79"/>
+      <c r="A362" s="78"/>
       <c r="B362" s="2" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="79"/>
+      <c r="A363" s="78"/>
       <c r="B363" s="2" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A364" s="79" t="s">
+      <c r="A364" s="78" t="s">
         <v>2044</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -19924,13 +20172,13 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="79"/>
+      <c r="A365" s="78"/>
       <c r="B365" s="2" t="s">
         <v>2046</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="79"/>
+      <c r="A366" s="78"/>
       <c r="B366" s="2" t="s">
         <v>2047</v>
       </c>
@@ -20000,112 +20248,112 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="79" t="s">
+      <c r="A375" s="78" t="s">
         <v>2065</v>
       </c>
-      <c r="B375" s="78"/>
+      <c r="B375" s="79"/>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="79"/>
-      <c r="B376" s="78"/>
+      <c r="A376" s="78"/>
+      <c r="B376" s="79"/>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="79"/>
-      <c r="B377" s="78"/>
+      <c r="A377" s="78"/>
+      <c r="B377" s="79"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="79"/>
-      <c r="B378" s="78"/>
+      <c r="A378" s="78"/>
+      <c r="B378" s="79"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="79"/>
-      <c r="B379" s="78"/>
+      <c r="A379" s="78"/>
+      <c r="B379" s="79"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="79"/>
-      <c r="B380" s="78"/>
+      <c r="A380" s="78"/>
+      <c r="B380" s="79"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="79"/>
-      <c r="B381" s="78"/>
+      <c r="A381" s="78"/>
+      <c r="B381" s="79"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="79"/>
-      <c r="B382" s="78"/>
+      <c r="A382" s="78"/>
+      <c r="B382" s="79"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="79"/>
-      <c r="B383" s="78"/>
+      <c r="A383" s="78"/>
+      <c r="B383" s="79"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="79"/>
-      <c r="B384" s="78"/>
+      <c r="A384" s="78"/>
+      <c r="B384" s="79"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="79"/>
-      <c r="B385" s="78"/>
+      <c r="A385" s="78"/>
+      <c r="B385" s="79"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="79"/>
-      <c r="B386" s="78"/>
+      <c r="A386" s="78"/>
+      <c r="B386" s="79"/>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="79"/>
-      <c r="B387" s="78"/>
+      <c r="A387" s="78"/>
+      <c r="B387" s="79"/>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="79" t="s">
+      <c r="A388" s="78" t="s">
         <v>2066</v>
       </c>
-      <c r="B388" s="78"/>
+      <c r="B388" s="79"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="79"/>
-      <c r="B389" s="78"/>
+      <c r="A389" s="78"/>
+      <c r="B389" s="79"/>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="79"/>
-      <c r="B390" s="78"/>
+      <c r="A390" s="78"/>
+      <c r="B390" s="79"/>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="79"/>
-      <c r="B391" s="78"/>
+      <c r="A391" s="78"/>
+      <c r="B391" s="79"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="79"/>
-      <c r="B392" s="78"/>
+      <c r="A392" s="78"/>
+      <c r="B392" s="79"/>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="79"/>
-      <c r="B393" s="78"/>
+      <c r="A393" s="78"/>
+      <c r="B393" s="79"/>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="79"/>
-      <c r="B394" s="78"/>
+      <c r="A394" s="78"/>
+      <c r="B394" s="79"/>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="79"/>
-      <c r="B395" s="78"/>
+      <c r="A395" s="78"/>
+      <c r="B395" s="79"/>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="79"/>
-      <c r="B396" s="78"/>
+      <c r="A396" s="78"/>
+      <c r="B396" s="79"/>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="79"/>
-      <c r="B397" s="78"/>
+      <c r="A397" s="78"/>
+      <c r="B397" s="79"/>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="79"/>
-      <c r="B398" s="78"/>
+      <c r="A398" s="78"/>
+      <c r="B398" s="79"/>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="79"/>
-      <c r="B399" s="78"/>
+      <c r="A399" s="78"/>
+      <c r="B399" s="79"/>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="79"/>
-      <c r="B400" s="78"/>
+      <c r="A400" s="78"/>
+      <c r="B400" s="79"/>
     </row>
     <row r="401" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
@@ -20116,162 +20364,162 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="79" t="s">
+      <c r="A402" s="78" t="s">
         <v>2069</v>
       </c>
-      <c r="B402" s="78"/>
+      <c r="B402" s="79"/>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="79"/>
-      <c r="B403" s="78"/>
+      <c r="A403" s="78"/>
+      <c r="B403" s="79"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="79"/>
-      <c r="B404" s="78"/>
+      <c r="A404" s="78"/>
+      <c r="B404" s="79"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="79"/>
-      <c r="B405" s="78"/>
+      <c r="A405" s="78"/>
+      <c r="B405" s="79"/>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="79"/>
-      <c r="B406" s="78"/>
+      <c r="A406" s="78"/>
+      <c r="B406" s="79"/>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="79"/>
-      <c r="B407" s="78"/>
+      <c r="A407" s="78"/>
+      <c r="B407" s="79"/>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="79"/>
-      <c r="B408" s="78"/>
+      <c r="A408" s="78"/>
+      <c r="B408" s="79"/>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="79"/>
-      <c r="B409" s="78"/>
+      <c r="A409" s="78"/>
+      <c r="B409" s="79"/>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="79"/>
-      <c r="B410" s="78"/>
+      <c r="A410" s="78"/>
+      <c r="B410" s="79"/>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="79"/>
-      <c r="B411" s="78"/>
+      <c r="A411" s="78"/>
+      <c r="B411" s="79"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="79"/>
-      <c r="B412" s="78"/>
+      <c r="A412" s="78"/>
+      <c r="B412" s="79"/>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="79" t="s">
+      <c r="A413" s="78" t="s">
         <v>2070</v>
       </c>
-      <c r="B413" s="78"/>
+      <c r="B413" s="79"/>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="79"/>
-      <c r="B414" s="78"/>
+      <c r="A414" s="78"/>
+      <c r="B414" s="79"/>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="79"/>
-      <c r="B415" s="78"/>
+      <c r="A415" s="78"/>
+      <c r="B415" s="79"/>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="79"/>
-      <c r="B416" s="78"/>
+      <c r="A416" s="78"/>
+      <c r="B416" s="79"/>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="79"/>
-      <c r="B417" s="78"/>
+      <c r="A417" s="78"/>
+      <c r="B417" s="79"/>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="79"/>
-      <c r="B418" s="78"/>
+      <c r="A418" s="78"/>
+      <c r="B418" s="79"/>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="79"/>
-      <c r="B419" s="78"/>
+      <c r="A419" s="78"/>
+      <c r="B419" s="79"/>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="79"/>
-      <c r="B420" s="78"/>
+      <c r="A420" s="78"/>
+      <c r="B420" s="79"/>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="79"/>
-      <c r="B421" s="78"/>
+      <c r="A421" s="78"/>
+      <c r="B421" s="79"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="79"/>
-      <c r="B422" s="78"/>
+      <c r="A422" s="78"/>
+      <c r="B422" s="79"/>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="79"/>
-      <c r="B423" s="78"/>
+      <c r="A423" s="78"/>
+      <c r="B423" s="79"/>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="79"/>
-      <c r="B424" s="78"/>
+      <c r="A424" s="78"/>
+      <c r="B424" s="79"/>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="79"/>
-      <c r="B425" s="78"/>
+      <c r="A425" s="78"/>
+      <c r="B425" s="79"/>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="79"/>
-      <c r="B426" s="78"/>
+      <c r="A426" s="78"/>
+      <c r="B426" s="79"/>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="79"/>
-      <c r="B427" s="78"/>
+      <c r="A427" s="78"/>
+      <c r="B427" s="79"/>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="79" t="s">
+      <c r="A428" s="78" t="s">
         <v>2071</v>
       </c>
-      <c r="B428" s="78"/>
+      <c r="B428" s="79"/>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="79"/>
-      <c r="B429" s="78"/>
+      <c r="A429" s="78"/>
+      <c r="B429" s="79"/>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="79"/>
-      <c r="B430" s="78"/>
+      <c r="A430" s="78"/>
+      <c r="B430" s="79"/>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="79"/>
-      <c r="B431" s="78"/>
+      <c r="A431" s="78"/>
+      <c r="B431" s="79"/>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="79"/>
-      <c r="B432" s="78"/>
+      <c r="A432" s="78"/>
+      <c r="B432" s="79"/>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="79"/>
-      <c r="B433" s="78"/>
+      <c r="A433" s="78"/>
+      <c r="B433" s="79"/>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="79"/>
-      <c r="B434" s="78"/>
+      <c r="A434" s="78"/>
+      <c r="B434" s="79"/>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="79"/>
-      <c r="B435" s="78"/>
+      <c r="A435" s="78"/>
+      <c r="B435" s="79"/>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="79"/>
-      <c r="B436" s="78"/>
+      <c r="A436" s="78"/>
+      <c r="B436" s="79"/>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="79"/>
-      <c r="B437" s="78"/>
+      <c r="A437" s="78"/>
+      <c r="B437" s="79"/>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="79"/>
-      <c r="B438" s="78"/>
+      <c r="A438" s="78"/>
+      <c r="B438" s="79"/>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="79"/>
-      <c r="B439" s="78"/>
+      <c r="A439" s="78"/>
+      <c r="B439" s="79"/>
     </row>
     <row r="440" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
@@ -20282,7 +20530,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A441" s="79" t="s">
+      <c r="A441" s="78" t="s">
         <v>2074</v>
       </c>
       <c r="B441" s="2" t="s">
@@ -20290,7 +20538,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A442" s="79"/>
+      <c r="A442" s="78"/>
       <c r="B442" s="2" t="s">
         <v>2076</v>
       </c>
@@ -20328,57 +20576,372 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="79" t="s">
+      <c r="A447" s="78" t="s">
         <v>2084</v>
       </c>
-      <c r="B447" s="78"/>
+      <c r="B447" s="79"/>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="79"/>
-      <c r="B448" s="78"/>
+      <c r="A448" s="78"/>
+      <c r="B448" s="79"/>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="79"/>
-      <c r="B449" s="78"/>
+      <c r="A449" s="78"/>
+      <c r="B449" s="79"/>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="79"/>
-      <c r="B450" s="78"/>
+      <c r="A450" s="78"/>
+      <c r="B450" s="79"/>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="79"/>
-      <c r="B451" s="78"/>
+      <c r="A451" s="78"/>
+      <c r="B451" s="79"/>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="79"/>
-      <c r="B452" s="78"/>
+      <c r="A452" s="78"/>
+      <c r="B452" s="79"/>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="79"/>
-      <c r="B453" s="78"/>
+      <c r="A453" s="78"/>
+      <c r="B453" s="79"/>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" s="79"/>
-      <c r="B454" s="78"/>
+      <c r="A454" s="78"/>
+      <c r="B454" s="79"/>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="79"/>
-      <c r="B455" s="78"/>
+      <c r="A455" s="78"/>
+      <c r="B455" s="79"/>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="79"/>
-      <c r="B456" s="78"/>
+      <c r="A456" s="78"/>
+      <c r="B456" s="79"/>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="79"/>
-      <c r="B457" s="78"/>
+      <c r="A457" s="78"/>
+      <c r="B457" s="79"/>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="79"/>
-      <c r="B458" s="78"/>
+      <c r="A458" s="78"/>
+      <c r="B458" s="79"/>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="78" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B459" s="79"/>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="78"/>
+      <c r="B460" s="79"/>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="78"/>
+      <c r="B461" s="79"/>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="78"/>
+      <c r="B462" s="79"/>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="78"/>
+      <c r="B463" s="79"/>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="78"/>
+      <c r="B464" s="79"/>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="78"/>
+      <c r="B465" s="79"/>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="78"/>
+      <c r="B466" s="79"/>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="78"/>
+      <c r="B467" s="79"/>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="78"/>
+      <c r="B468" s="79"/>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="78"/>
+      <c r="B469" s="79"/>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="78"/>
+      <c r="B470" s="79"/>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="78"/>
+      <c r="B471" s="79"/>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="78"/>
+      <c r="B472" s="79"/>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="78"/>
+      <c r="B473" s="79"/>
+    </row>
+    <row r="474" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A474" s="78" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="78"/>
+      <c r="B475" s="2" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="78" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B476" s="79"/>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="78"/>
+      <c r="B477" s="79"/>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="78"/>
+      <c r="B478" s="79"/>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="78"/>
+      <c r="B479" s="79"/>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="78"/>
+      <c r="B480" s="79"/>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="78"/>
+      <c r="B481" s="79"/>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="78"/>
+      <c r="B482" s="79"/>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="78"/>
+      <c r="B483" s="79"/>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="78"/>
+      <c r="B484" s="79"/>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="78"/>
+      <c r="B485" s="79"/>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="78"/>
+      <c r="B486" s="79"/>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="78"/>
+      <c r="B487" s="79"/>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="78"/>
+      <c r="B488" s="79"/>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="78" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B489" s="79"/>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="78"/>
+      <c r="B490" s="79"/>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="78"/>
+      <c r="B491" s="79"/>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="78"/>
+      <c r="B492" s="79"/>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="78"/>
+      <c r="B493" s="79"/>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="78"/>
+      <c r="B494" s="79"/>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="78"/>
+      <c r="B495" s="79"/>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="78"/>
+      <c r="B496" s="79"/>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="78"/>
+      <c r="B497" s="79"/>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="78"/>
+      <c r="B498" s="79"/>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="78"/>
+      <c r="B499" s="79"/>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="78"/>
+      <c r="B500" s="79"/>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="78"/>
+      <c r="B501" s="79"/>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="78" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B502" s="79"/>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="78"/>
+      <c r="B503" s="79"/>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="78"/>
+      <c r="B504" s="79"/>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="78"/>
+      <c r="B505" s="79"/>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="78"/>
+      <c r="B506" s="79"/>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="78"/>
+      <c r="B507" s="79"/>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="78"/>
+      <c r="B508" s="79"/>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="78"/>
+      <c r="B509" s="79"/>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="78"/>
+      <c r="B510" s="79"/>
+    </row>
+    <row r="511" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A511" s="78" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A512" s="78"/>
+      <c r="B512" s="2" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="78" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B513" s="79"/>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="78"/>
+      <c r="B514" s="79"/>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="78"/>
+      <c r="B515" s="79"/>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="78"/>
+      <c r="B516" s="79"/>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="78"/>
+      <c r="B517" s="79"/>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="78"/>
+      <c r="B518" s="79"/>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="78"/>
+      <c r="B519" s="79"/>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="78"/>
+      <c r="B520" s="79"/>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="78"/>
+      <c r="B521" s="79"/>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="78"/>
+      <c r="B522" s="79"/>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="78"/>
+      <c r="B523" s="79"/>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="78"/>
+      <c r="B524" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="39">
+    <mergeCell ref="B513:B524"/>
+    <mergeCell ref="A513:A524"/>
+    <mergeCell ref="B489:B501"/>
+    <mergeCell ref="A489:A501"/>
+    <mergeCell ref="B502:B510"/>
+    <mergeCell ref="A502:A510"/>
+    <mergeCell ref="A511:A512"/>
+    <mergeCell ref="B459:B473"/>
+    <mergeCell ref="A459:A473"/>
+    <mergeCell ref="A474:A475"/>
+    <mergeCell ref="B476:B488"/>
+    <mergeCell ref="A476:A488"/>
+    <mergeCell ref="B447:B458"/>
+    <mergeCell ref="A447:A458"/>
+    <mergeCell ref="B413:B427"/>
+    <mergeCell ref="A413:A427"/>
+    <mergeCell ref="B428:B439"/>
+    <mergeCell ref="A428:A439"/>
+    <mergeCell ref="A441:A442"/>
+    <mergeCell ref="B388:B400"/>
+    <mergeCell ref="A388:A400"/>
+    <mergeCell ref="B402:B412"/>
+    <mergeCell ref="A402:A412"/>
+    <mergeCell ref="A357:B357"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="A360:A363"/>
+    <mergeCell ref="A364:A366"/>
+    <mergeCell ref="A375:A387"/>
+    <mergeCell ref="B375:B387"/>
     <mergeCell ref="A353:A355"/>
     <mergeCell ref="A340:B340"/>
     <mergeCell ref="A317:A319"/>
@@ -20389,23 +20952,6 @@
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A298:A300"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B388:B400"/>
-    <mergeCell ref="A388:A400"/>
-    <mergeCell ref="B402:B412"/>
-    <mergeCell ref="A402:A412"/>
-    <mergeCell ref="A357:B357"/>
-    <mergeCell ref="A359:B359"/>
-    <mergeCell ref="A360:A363"/>
-    <mergeCell ref="A364:A366"/>
-    <mergeCell ref="A375:A387"/>
-    <mergeCell ref="B375:B387"/>
-    <mergeCell ref="B447:B458"/>
-    <mergeCell ref="A447:A458"/>
-    <mergeCell ref="B413:B427"/>
-    <mergeCell ref="A413:A427"/>
-    <mergeCell ref="B428:B439"/>
-    <mergeCell ref="A428:A439"/>
-    <mergeCell ref="A441:A442"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -23085,7 +23631,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="78" t="s">
         <v>1059</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -23093,19 +23639,19 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="3" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="2" t="s">
         <v>1056</v>
       </c>

--- a/Definitions.xlsx
+++ b/Definitions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="2094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="2103">
   <si>
     <t>JDK</t>
   </si>
@@ -14882,6 +14882,38 @@
   </si>
   <si>
     <t>If garbage collector calls finalize() method and while executing finalize() method, if any exception occurs and which is uncaught then JVM ignores that exception and rest of the program will be executed normally</t>
+  </si>
+  <si>
+    <t>Some important points on garbage collector</t>
+  </si>
+  <si>
+    <t>1. Usually whenever program runs with low memory JVM will run grabage collector. But we can't expect exactly at what time
+2. Most of the garbage collectors follow "Mark and Sweep" algorithm but not all JVM implementations follow the same algorithm. Different vendors of JVM may follow different algorithms</t>
+  </si>
+  <si>
+    <t>Whether GC destroys all eligible objects?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. Check program (Java -&gt; garbage.collection.HowManyTimeGCExecuted). We have created 1000000 objects and all are eligible for garbage collection but when execute we can see count (number of times finalize() method gets executed) is less than 1000000. That means not all 1000000 objects are destroyed by garbage collector </t>
+  </si>
+  <si>
+    <t>Algorithms of GC</t>
+  </si>
+  <si>
+    <t>1. Mark and Sweet algorithm</t>
+  </si>
+  <si>
+    <t>Memory Leaks</t>
+  </si>
+  <si>
+    <t>1. The objects which are getting used in our in our program and which are not eligible for garbage collection, such type of useless objects are called memory leaks. 
+2. In our program if memory leaks present then at certain point our program fails by raising OutOfMemoryError
+3. To overcome this problem if an object is not longer required, then it is higly recommended to make an object eligible for GC</t>
+  </si>
+  <si>
+    <t>4. In our program if memory leak present, then it is purely programmer's mistake
+5. The following are various memory management tools to identify memory leaks in our application
+HP-J-METER, HP-OVO, J-PROBE, HP-PATROL, IBM-TIVOLI etc</t>
   </si>
 </sst>
 </file>
@@ -15302,11 +15334,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -17318,10 +17350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B524"/>
+  <dimension ref="A1:B529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
-      <selection activeCell="A513" sqref="A513:A524"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="A528" sqref="A528:A529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17361,7 +17393,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -17369,7 +17401,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="2" t="s">
         <v>235</v>
       </c>
@@ -18191,7 +18223,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="78" t="s">
+      <c r="A109" s="79" t="s">
         <v>1992</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -18199,7 +18231,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A110" s="78"/>
+      <c r="A110" s="79"/>
       <c r="B110" s="2" t="s">
         <v>1761</v>
       </c>
@@ -18213,7 +18245,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A112" s="78" t="s">
+      <c r="A112" s="79" t="s">
         <v>1763</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -18221,7 +18253,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="78"/>
+      <c r="A113" s="79"/>
       <c r="B113" s="2" t="s">
         <v>1766</v>
       </c>
@@ -19684,7 +19716,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A298" s="78" t="s">
+      <c r="A298" s="79" t="s">
         <v>1872</v>
       </c>
       <c r="B298" s="53" t="s">
@@ -19692,13 +19724,13 @@
       </c>
     </row>
     <row r="299" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A299" s="78"/>
+      <c r="A299" s="79"/>
       <c r="B299" s="53" t="s">
         <v>1865</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A300" s="78"/>
+      <c r="A300" s="79"/>
       <c r="B300" s="53" t="s">
         <v>1866</v>
       </c>
@@ -19712,7 +19744,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A302" s="78" t="s">
+      <c r="A302" s="79" t="s">
         <v>1870</v>
       </c>
       <c r="B302" s="53" t="s">
@@ -19720,7 +19752,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A303" s="78"/>
+      <c r="A303" s="79"/>
       <c r="B303" s="53" t="s">
         <v>1920</v>
       </c>
@@ -19830,7 +19862,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A317" s="78" t="s">
+      <c r="A317" s="79" t="s">
         <v>1897</v>
       </c>
       <c r="B317" s="55" t="s">
@@ -19838,13 +19870,13 @@
       </c>
     </row>
     <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="78"/>
+      <c r="A318" s="79"/>
       <c r="B318" s="55" t="s">
         <v>1899</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A319" s="78"/>
+      <c r="A319" s="79"/>
       <c r="B319" s="55" t="s">
         <v>1900</v>
       </c>
@@ -20098,7 +20130,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A353" s="78" t="s">
+      <c r="A353" s="79" t="s">
         <v>2030</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -20106,13 +20138,13 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="78"/>
+      <c r="A354" s="79"/>
       <c r="B354" s="2" t="s">
         <v>2031</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A355" s="78"/>
+      <c r="A355" s="79"/>
       <c r="B355" s="2" t="s">
         <v>2032</v>
       </c>
@@ -20146,25 +20178,25 @@
       </c>
     </row>
     <row r="361" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A361" s="78"/>
+      <c r="A361" s="79"/>
       <c r="B361" s="2" t="s">
         <v>2042</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A362" s="78"/>
+      <c r="A362" s="79"/>
       <c r="B362" s="2" t="s">
         <v>2048</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="78"/>
+      <c r="A363" s="79"/>
       <c r="B363" s="2" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A364" s="78" t="s">
+      <c r="A364" s="79" t="s">
         <v>2044</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -20172,13 +20204,13 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="78"/>
+      <c r="A365" s="79"/>
       <c r="B365" s="2" t="s">
         <v>2046</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="78"/>
+      <c r="A366" s="79"/>
       <c r="B366" s="2" t="s">
         <v>2047</v>
       </c>
@@ -20248,112 +20280,112 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="78" t="s">
+      <c r="A375" s="79" t="s">
         <v>2065</v>
       </c>
-      <c r="B375" s="79"/>
+      <c r="B375" s="78"/>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="78"/>
-      <c r="B376" s="79"/>
+      <c r="A376" s="79"/>
+      <c r="B376" s="78"/>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="78"/>
-      <c r="B377" s="79"/>
+      <c r="A377" s="79"/>
+      <c r="B377" s="78"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="78"/>
-      <c r="B378" s="79"/>
+      <c r="A378" s="79"/>
+      <c r="B378" s="78"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="78"/>
-      <c r="B379" s="79"/>
+      <c r="A379" s="79"/>
+      <c r="B379" s="78"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="78"/>
-      <c r="B380" s="79"/>
+      <c r="A380" s="79"/>
+      <c r="B380" s="78"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="78"/>
-      <c r="B381" s="79"/>
+      <c r="A381" s="79"/>
+      <c r="B381" s="78"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="78"/>
-      <c r="B382" s="79"/>
+      <c r="A382" s="79"/>
+      <c r="B382" s="78"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="78"/>
-      <c r="B383" s="79"/>
+      <c r="A383" s="79"/>
+      <c r="B383" s="78"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="78"/>
-      <c r="B384" s="79"/>
+      <c r="A384" s="79"/>
+      <c r="B384" s="78"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="78"/>
-      <c r="B385" s="79"/>
+      <c r="A385" s="79"/>
+      <c r="B385" s="78"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="78"/>
-      <c r="B386" s="79"/>
+      <c r="A386" s="79"/>
+      <c r="B386" s="78"/>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="78"/>
-      <c r="B387" s="79"/>
+      <c r="A387" s="79"/>
+      <c r="B387" s="78"/>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="78" t="s">
+      <c r="A388" s="79" t="s">
         <v>2066</v>
       </c>
-      <c r="B388" s="79"/>
+      <c r="B388" s="78"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="78"/>
-      <c r="B389" s="79"/>
+      <c r="A389" s="79"/>
+      <c r="B389" s="78"/>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="78"/>
-      <c r="B390" s="79"/>
+      <c r="A390" s="79"/>
+      <c r="B390" s="78"/>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="78"/>
-      <c r="B391" s="79"/>
+      <c r="A391" s="79"/>
+      <c r="B391" s="78"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="78"/>
-      <c r="B392" s="79"/>
+      <c r="A392" s="79"/>
+      <c r="B392" s="78"/>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="78"/>
-      <c r="B393" s="79"/>
+      <c r="A393" s="79"/>
+      <c r="B393" s="78"/>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="78"/>
-      <c r="B394" s="79"/>
+      <c r="A394" s="79"/>
+      <c r="B394" s="78"/>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="78"/>
-      <c r="B395" s="79"/>
+      <c r="A395" s="79"/>
+      <c r="B395" s="78"/>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="78"/>
-      <c r="B396" s="79"/>
+      <c r="A396" s="79"/>
+      <c r="B396" s="78"/>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="78"/>
-      <c r="B397" s="79"/>
+      <c r="A397" s="79"/>
+      <c r="B397" s="78"/>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="78"/>
-      <c r="B398" s="79"/>
+      <c r="A398" s="79"/>
+      <c r="B398" s="78"/>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="78"/>
-      <c r="B399" s="79"/>
+      <c r="A399" s="79"/>
+      <c r="B399" s="78"/>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="78"/>
-      <c r="B400" s="79"/>
+      <c r="A400" s="79"/>
+      <c r="B400" s="78"/>
     </row>
     <row r="401" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
@@ -20364,162 +20396,162 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="78" t="s">
+      <c r="A402" s="79" t="s">
         <v>2069</v>
       </c>
-      <c r="B402" s="79"/>
+      <c r="B402" s="78"/>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="78"/>
-      <c r="B403" s="79"/>
+      <c r="A403" s="79"/>
+      <c r="B403" s="78"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="78"/>
-      <c r="B404" s="79"/>
+      <c r="A404" s="79"/>
+      <c r="B404" s="78"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="78"/>
-      <c r="B405" s="79"/>
+      <c r="A405" s="79"/>
+      <c r="B405" s="78"/>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="78"/>
-      <c r="B406" s="79"/>
+      <c r="A406" s="79"/>
+      <c r="B406" s="78"/>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="78"/>
-      <c r="B407" s="79"/>
+      <c r="A407" s="79"/>
+      <c r="B407" s="78"/>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="78"/>
-      <c r="B408" s="79"/>
+      <c r="A408" s="79"/>
+      <c r="B408" s="78"/>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="78"/>
-      <c r="B409" s="79"/>
+      <c r="A409" s="79"/>
+      <c r="B409" s="78"/>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="78"/>
-      <c r="B410" s="79"/>
+      <c r="A410" s="79"/>
+      <c r="B410" s="78"/>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="78"/>
-      <c r="B411" s="79"/>
+      <c r="A411" s="79"/>
+      <c r="B411" s="78"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="78"/>
-      <c r="B412" s="79"/>
+      <c r="A412" s="79"/>
+      <c r="B412" s="78"/>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="78" t="s">
+      <c r="A413" s="79" t="s">
         <v>2070</v>
       </c>
-      <c r="B413" s="79"/>
+      <c r="B413" s="78"/>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="78"/>
-      <c r="B414" s="79"/>
+      <c r="A414" s="79"/>
+      <c r="B414" s="78"/>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="78"/>
-      <c r="B415" s="79"/>
+      <c r="A415" s="79"/>
+      <c r="B415" s="78"/>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="78"/>
-      <c r="B416" s="79"/>
+      <c r="A416" s="79"/>
+      <c r="B416" s="78"/>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="78"/>
-      <c r="B417" s="79"/>
+      <c r="A417" s="79"/>
+      <c r="B417" s="78"/>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="78"/>
-      <c r="B418" s="79"/>
+      <c r="A418" s="79"/>
+      <c r="B418" s="78"/>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="78"/>
-      <c r="B419" s="79"/>
+      <c r="A419" s="79"/>
+      <c r="B419" s="78"/>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="78"/>
-      <c r="B420" s="79"/>
+      <c r="A420" s="79"/>
+      <c r="B420" s="78"/>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="78"/>
-      <c r="B421" s="79"/>
+      <c r="A421" s="79"/>
+      <c r="B421" s="78"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="78"/>
-      <c r="B422" s="79"/>
+      <c r="A422" s="79"/>
+      <c r="B422" s="78"/>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="78"/>
-      <c r="B423" s="79"/>
+      <c r="A423" s="79"/>
+      <c r="B423" s="78"/>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="78"/>
-      <c r="B424" s="79"/>
+      <c r="A424" s="79"/>
+      <c r="B424" s="78"/>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="78"/>
-      <c r="B425" s="79"/>
+      <c r="A425" s="79"/>
+      <c r="B425" s="78"/>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="78"/>
-      <c r="B426" s="79"/>
+      <c r="A426" s="79"/>
+      <c r="B426" s="78"/>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="78"/>
-      <c r="B427" s="79"/>
+      <c r="A427" s="79"/>
+      <c r="B427" s="78"/>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="78" t="s">
+      <c r="A428" s="79" t="s">
         <v>2071</v>
       </c>
-      <c r="B428" s="79"/>
+      <c r="B428" s="78"/>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="78"/>
-      <c r="B429" s="79"/>
+      <c r="A429" s="79"/>
+      <c r="B429" s="78"/>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="78"/>
-      <c r="B430" s="79"/>
+      <c r="A430" s="79"/>
+      <c r="B430" s="78"/>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="78"/>
-      <c r="B431" s="79"/>
+      <c r="A431" s="79"/>
+      <c r="B431" s="78"/>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="78"/>
-      <c r="B432" s="79"/>
+      <c r="A432" s="79"/>
+      <c r="B432" s="78"/>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="78"/>
-      <c r="B433" s="79"/>
+      <c r="A433" s="79"/>
+      <c r="B433" s="78"/>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="78"/>
-      <c r="B434" s="79"/>
+      <c r="A434" s="79"/>
+      <c r="B434" s="78"/>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="78"/>
-      <c r="B435" s="79"/>
+      <c r="A435" s="79"/>
+      <c r="B435" s="78"/>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="78"/>
-      <c r="B436" s="79"/>
+      <c r="A436" s="79"/>
+      <c r="B436" s="78"/>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="78"/>
-      <c r="B437" s="79"/>
+      <c r="A437" s="79"/>
+      <c r="B437" s="78"/>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="78"/>
-      <c r="B438" s="79"/>
+      <c r="A438" s="79"/>
+      <c r="B438" s="78"/>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="78"/>
-      <c r="B439" s="79"/>
+      <c r="A439" s="79"/>
+      <c r="B439" s="78"/>
     </row>
     <row r="440" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
@@ -20530,7 +20562,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A441" s="78" t="s">
+      <c r="A441" s="79" t="s">
         <v>2074</v>
       </c>
       <c r="B441" s="2" t="s">
@@ -20538,7 +20570,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A442" s="78"/>
+      <c r="A442" s="79"/>
       <c r="B442" s="2" t="s">
         <v>2076</v>
       </c>
@@ -20576,119 +20608,119 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="78" t="s">
+      <c r="A447" s="79" t="s">
         <v>2084</v>
       </c>
-      <c r="B447" s="79"/>
+      <c r="B447" s="78"/>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="78"/>
-      <c r="B448" s="79"/>
+      <c r="A448" s="79"/>
+      <c r="B448" s="78"/>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="78"/>
-      <c r="B449" s="79"/>
+      <c r="A449" s="79"/>
+      <c r="B449" s="78"/>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="78"/>
-      <c r="B450" s="79"/>
+      <c r="A450" s="79"/>
+      <c r="B450" s="78"/>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="78"/>
-      <c r="B451" s="79"/>
+      <c r="A451" s="79"/>
+      <c r="B451" s="78"/>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="78"/>
-      <c r="B452" s="79"/>
+      <c r="A452" s="79"/>
+      <c r="B452" s="78"/>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="78"/>
-      <c r="B453" s="79"/>
+      <c r="A453" s="79"/>
+      <c r="B453" s="78"/>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" s="78"/>
-      <c r="B454" s="79"/>
+      <c r="A454" s="79"/>
+      <c r="B454" s="78"/>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="78"/>
-      <c r="B455" s="79"/>
+      <c r="A455" s="79"/>
+      <c r="B455" s="78"/>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="78"/>
-      <c r="B456" s="79"/>
+      <c r="A456" s="79"/>
+      <c r="B456" s="78"/>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="78"/>
-      <c r="B457" s="79"/>
+      <c r="A457" s="79"/>
+      <c r="B457" s="78"/>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="78"/>
-      <c r="B458" s="79"/>
+      <c r="A458" s="79"/>
+      <c r="B458" s="78"/>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="78" t="s">
+      <c r="A459" s="79" t="s">
         <v>2085</v>
       </c>
-      <c r="B459" s="79"/>
+      <c r="B459" s="78"/>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="78"/>
-      <c r="B460" s="79"/>
+      <c r="A460" s="79"/>
+      <c r="B460" s="78"/>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="78"/>
-      <c r="B461" s="79"/>
+      <c r="A461" s="79"/>
+      <c r="B461" s="78"/>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="78"/>
-      <c r="B462" s="79"/>
+      <c r="A462" s="79"/>
+      <c r="B462" s="78"/>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="78"/>
-      <c r="B463" s="79"/>
+      <c r="A463" s="79"/>
+      <c r="B463" s="78"/>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="78"/>
-      <c r="B464" s="79"/>
+      <c r="A464" s="79"/>
+      <c r="B464" s="78"/>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="78"/>
-      <c r="B465" s="79"/>
+      <c r="A465" s="79"/>
+      <c r="B465" s="78"/>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" s="78"/>
-      <c r="B466" s="79"/>
+      <c r="A466" s="79"/>
+      <c r="B466" s="78"/>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="78"/>
-      <c r="B467" s="79"/>
+      <c r="A467" s="79"/>
+      <c r="B467" s="78"/>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="78"/>
-      <c r="B468" s="79"/>
+      <c r="A468" s="79"/>
+      <c r="B468" s="78"/>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="78"/>
-      <c r="B469" s="79"/>
+      <c r="A469" s="79"/>
+      <c r="B469" s="78"/>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="78"/>
-      <c r="B470" s="79"/>
+      <c r="A470" s="79"/>
+      <c r="B470" s="78"/>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="78"/>
-      <c r="B471" s="79"/>
+      <c r="A471" s="79"/>
+      <c r="B471" s="78"/>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="78"/>
-      <c r="B472" s="79"/>
+      <c r="A472" s="79"/>
+      <c r="B472" s="78"/>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="78"/>
-      <c r="B473" s="79"/>
+      <c r="A473" s="79"/>
+      <c r="B473" s="78"/>
     </row>
     <row r="474" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A474" s="78" t="s">
+      <c r="A474" s="79" t="s">
         <v>2043</v>
       </c>
       <c r="B474" s="2" t="s">
@@ -20696,159 +20728,159 @@
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="78"/>
+      <c r="A475" s="79"/>
       <c r="B475" s="2" t="s">
         <v>2087</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="78" t="s">
+      <c r="A476" s="79" t="s">
         <v>2088</v>
       </c>
-      <c r="B476" s="79"/>
+      <c r="B476" s="78"/>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="78"/>
-      <c r="B477" s="79"/>
+      <c r="A477" s="79"/>
+      <c r="B477" s="78"/>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="78"/>
-      <c r="B478" s="79"/>
+      <c r="A478" s="79"/>
+      <c r="B478" s="78"/>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="78"/>
-      <c r="B479" s="79"/>
+      <c r="A479" s="79"/>
+      <c r="B479" s="78"/>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="78"/>
-      <c r="B480" s="79"/>
+      <c r="A480" s="79"/>
+      <c r="B480" s="78"/>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="78"/>
-      <c r="B481" s="79"/>
+      <c r="A481" s="79"/>
+      <c r="B481" s="78"/>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="78"/>
-      <c r="B482" s="79"/>
+      <c r="A482" s="79"/>
+      <c r="B482" s="78"/>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="78"/>
-      <c r="B483" s="79"/>
+      <c r="A483" s="79"/>
+      <c r="B483" s="78"/>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="78"/>
-      <c r="B484" s="79"/>
+      <c r="A484" s="79"/>
+      <c r="B484" s="78"/>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="78"/>
-      <c r="B485" s="79"/>
+      <c r="A485" s="79"/>
+      <c r="B485" s="78"/>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="78"/>
-      <c r="B486" s="79"/>
+      <c r="A486" s="79"/>
+      <c r="B486" s="78"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="78"/>
-      <c r="B487" s="79"/>
+      <c r="A487" s="79"/>
+      <c r="B487" s="78"/>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="78"/>
-      <c r="B488" s="79"/>
+      <c r="A488" s="79"/>
+      <c r="B488" s="78"/>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="78" t="s">
+      <c r="A489" s="79" t="s">
         <v>2089</v>
       </c>
-      <c r="B489" s="79"/>
+      <c r="B489" s="78"/>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="78"/>
-      <c r="B490" s="79"/>
+      <c r="A490" s="79"/>
+      <c r="B490" s="78"/>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="78"/>
-      <c r="B491" s="79"/>
+      <c r="A491" s="79"/>
+      <c r="B491" s="78"/>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="78"/>
-      <c r="B492" s="79"/>
+      <c r="A492" s="79"/>
+      <c r="B492" s="78"/>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="78"/>
-      <c r="B493" s="79"/>
+      <c r="A493" s="79"/>
+      <c r="B493" s="78"/>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="78"/>
-      <c r="B494" s="79"/>
+      <c r="A494" s="79"/>
+      <c r="B494" s="78"/>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="78"/>
-      <c r="B495" s="79"/>
+      <c r="A495" s="79"/>
+      <c r="B495" s="78"/>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="78"/>
-      <c r="B496" s="79"/>
+      <c r="A496" s="79"/>
+      <c r="B496" s="78"/>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="78"/>
-      <c r="B497" s="79"/>
+      <c r="A497" s="79"/>
+      <c r="B497" s="78"/>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="78"/>
-      <c r="B498" s="79"/>
+      <c r="A498" s="79"/>
+      <c r="B498" s="78"/>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="78"/>
-      <c r="B499" s="79"/>
+      <c r="A499" s="79"/>
+      <c r="B499" s="78"/>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="78"/>
-      <c r="B500" s="79"/>
+      <c r="A500" s="79"/>
+      <c r="B500" s="78"/>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="78"/>
-      <c r="B501" s="79"/>
+      <c r="A501" s="79"/>
+      <c r="B501" s="78"/>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="78" t="s">
+      <c r="A502" s="79" t="s">
         <v>2090</v>
       </c>
-      <c r="B502" s="79"/>
+      <c r="B502" s="78"/>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" s="78"/>
-      <c r="B503" s="79"/>
+      <c r="A503" s="79"/>
+      <c r="B503" s="78"/>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="78"/>
-      <c r="B504" s="79"/>
+      <c r="A504" s="79"/>
+      <c r="B504" s="78"/>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="78"/>
-      <c r="B505" s="79"/>
+      <c r="A505" s="79"/>
+      <c r="B505" s="78"/>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" s="78"/>
-      <c r="B506" s="79"/>
+      <c r="A506" s="79"/>
+      <c r="B506" s="78"/>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="78"/>
-      <c r="B507" s="79"/>
+      <c r="A507" s="79"/>
+      <c r="B507" s="78"/>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" s="78"/>
-      <c r="B508" s="79"/>
+      <c r="A508" s="79"/>
+      <c r="B508" s="78"/>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" s="78"/>
-      <c r="B509" s="79"/>
+      <c r="A509" s="79"/>
+      <c r="B509" s="78"/>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" s="78"/>
-      <c r="B510" s="79"/>
+      <c r="A510" s="79"/>
+      <c r="B510" s="78"/>
     </row>
     <row r="511" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A511" s="78" t="s">
+      <c r="A511" s="79" t="s">
         <v>2091</v>
       </c>
       <c r="B511" s="2" t="s">
@@ -20856,82 +20888,112 @@
       </c>
     </row>
     <row r="512" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A512" s="78"/>
+      <c r="A512" s="79"/>
       <c r="B512" s="2" t="s">
         <v>2093</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="78" t="s">
+      <c r="A513" s="79" t="s">
         <v>2090</v>
       </c>
-      <c r="B513" s="79"/>
+      <c r="B513" s="78"/>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="78"/>
-      <c r="B514" s="79"/>
+      <c r="A514" s="79"/>
+      <c r="B514" s="78"/>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="78"/>
-      <c r="B515" s="79"/>
+      <c r="A515" s="79"/>
+      <c r="B515" s="78"/>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="78"/>
-      <c r="B516" s="79"/>
+      <c r="A516" s="79"/>
+      <c r="B516" s="78"/>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="78"/>
-      <c r="B517" s="79"/>
+      <c r="A517" s="79"/>
+      <c r="B517" s="78"/>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="78"/>
-      <c r="B518" s="79"/>
+      <c r="A518" s="79"/>
+      <c r="B518" s="78"/>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="78"/>
-      <c r="B519" s="79"/>
+      <c r="A519" s="79"/>
+      <c r="B519" s="78"/>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="78"/>
-      <c r="B520" s="79"/>
+      <c r="A520" s="79"/>
+      <c r="B520" s="78"/>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" s="78"/>
-      <c r="B521" s="79"/>
+      <c r="A521" s="79"/>
+      <c r="B521" s="78"/>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" s="78"/>
-      <c r="B522" s="79"/>
+      <c r="A522" s="79"/>
+      <c r="B522" s="78"/>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" s="78"/>
-      <c r="B523" s="79"/>
+      <c r="A523" s="79"/>
+      <c r="B523" s="78"/>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="78"/>
-      <c r="B524" s="79"/>
+      <c r="A524" s="79"/>
+      <c r="B524" s="78"/>
+    </row>
+    <row r="525" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A528" s="79" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A529" s="79"/>
+      <c r="B529" s="2" t="s">
+        <v>2102</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B513:B524"/>
-    <mergeCell ref="A513:A524"/>
-    <mergeCell ref="B489:B501"/>
-    <mergeCell ref="A489:A501"/>
-    <mergeCell ref="B502:B510"/>
-    <mergeCell ref="A502:A510"/>
-    <mergeCell ref="A511:A512"/>
-    <mergeCell ref="B459:B473"/>
-    <mergeCell ref="A459:A473"/>
-    <mergeCell ref="A474:A475"/>
-    <mergeCell ref="B476:B488"/>
-    <mergeCell ref="A476:A488"/>
-    <mergeCell ref="B447:B458"/>
-    <mergeCell ref="A447:A458"/>
-    <mergeCell ref="B413:B427"/>
-    <mergeCell ref="A413:A427"/>
-    <mergeCell ref="B428:B439"/>
-    <mergeCell ref="A428:A439"/>
-    <mergeCell ref="A441:A442"/>
+  <mergeCells count="40">
+    <mergeCell ref="A528:A529"/>
+    <mergeCell ref="A353:A355"/>
+    <mergeCell ref="A340:B340"/>
+    <mergeCell ref="A317:A319"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A298:A300"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B388:B400"/>
     <mergeCell ref="A388:A400"/>
     <mergeCell ref="B402:B412"/>
@@ -20942,16 +21004,25 @@
     <mergeCell ref="A364:A366"/>
     <mergeCell ref="A375:A387"/>
     <mergeCell ref="B375:B387"/>
-    <mergeCell ref="A353:A355"/>
-    <mergeCell ref="A340:B340"/>
-    <mergeCell ref="A317:A319"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A298:A300"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B447:B458"/>
+    <mergeCell ref="A447:A458"/>
+    <mergeCell ref="B413:B427"/>
+    <mergeCell ref="A413:A427"/>
+    <mergeCell ref="B428:B439"/>
+    <mergeCell ref="A428:A439"/>
+    <mergeCell ref="A441:A442"/>
+    <mergeCell ref="B459:B473"/>
+    <mergeCell ref="A459:A473"/>
+    <mergeCell ref="A474:A475"/>
+    <mergeCell ref="B476:B488"/>
+    <mergeCell ref="A476:A488"/>
+    <mergeCell ref="B513:B524"/>
+    <mergeCell ref="A513:A524"/>
+    <mergeCell ref="B489:B501"/>
+    <mergeCell ref="A489:A501"/>
+    <mergeCell ref="B502:B510"/>
+    <mergeCell ref="A502:A510"/>
+    <mergeCell ref="A511:A512"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -23631,7 +23702,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="79" t="s">
         <v>1059</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -23639,19 +23710,19 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="3" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="2" t="s">
         <v>1056</v>
       </c>
